--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Programming\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A33B7D0-BE67-4DBA-B3C4-86A19F2A1155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10040E8-5A39-4893-8444-9F5FFBE5C914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1028">
   <si>
     <t>id</t>
   </si>
@@ -2541,6 +2541,591 @@
   </si>
   <si>
     <t>Escribano cerillo</t>
+  </si>
+  <si>
+    <t>Abbott's Booby</t>
+  </si>
+  <si>
+    <t>Papasula abbotti</t>
+  </si>
+  <si>
+    <t>Australasian Pipit</t>
+  </si>
+  <si>
+    <t>Anthus novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Australasian Shoveler</t>
+  </si>
+  <si>
+    <t>Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t>Australian Ibis</t>
+  </si>
+  <si>
+    <t>Threskiornis moluccus</t>
+  </si>
+  <si>
+    <t>Australian Magpie</t>
+  </si>
+  <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Australian Owlet-Nightjar</t>
+  </si>
+  <si>
+    <t>Aegotheles cristatus</t>
+  </si>
+  <si>
+    <t>Australian Raven</t>
+  </si>
+  <si>
+    <t>Corvus coronoides</t>
+  </si>
+  <si>
+    <t>Australian Reed Warbler</t>
+  </si>
+  <si>
+    <t>Acrocephalus australis</t>
+  </si>
+  <si>
+    <t>Australian Shelduck</t>
+  </si>
+  <si>
+    <t>Tadorna tadornoides</t>
+  </si>
+  <si>
+    <t>Australian Zebra Finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia castanotis</t>
+  </si>
+  <si>
+    <t>Black Noddy</t>
+  </si>
+  <si>
+    <t>Anous minutus</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Cygnus atratus</t>
+  </si>
+  <si>
+    <t>Black-Shouldered Kite</t>
+  </si>
+  <si>
+    <t>Elanus axillaris</t>
+  </si>
+  <si>
+    <t>Blyth's Hornbill</t>
+  </si>
+  <si>
+    <t>Rhyticeros plicatus</t>
+  </si>
+  <si>
+    <t>Brolga</t>
+  </si>
+  <si>
+    <t>Antigone rubicunda</t>
+  </si>
+  <si>
+    <t>Brown Falcon</t>
+  </si>
+  <si>
+    <t>Falco berigora</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Count Raggi's Bird-of-Paradise</t>
+  </si>
+  <si>
+    <t>Paradisaea raggiana</t>
+  </si>
+  <si>
+    <t>Crested Pigeon</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Crimson Chat</t>
+  </si>
+  <si>
+    <t>Epthianura tricolor</t>
+  </si>
+  <si>
+    <t>Eastern Rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Eastern Whipbird</t>
+  </si>
+  <si>
+    <t>Psophodes olivaceus</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Galah</t>
+  </si>
+  <si>
+    <t>Eolophus roseicapilla</t>
+  </si>
+  <si>
+    <t>Golden-Headed Cisticola</t>
+  </si>
+  <si>
+    <t>Cisticola exilis</t>
+  </si>
+  <si>
+    <t>Gould's Finch</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Green Pygmy-Goose</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Grey Butcherbird</t>
+  </si>
+  <si>
+    <t>Cracticus torquatus</t>
+  </si>
+  <si>
+    <t>Grey Shrikethrush</t>
+  </si>
+  <si>
+    <t>Colluricincla harmonica</t>
+  </si>
+  <si>
+    <t>Grey Teal</t>
+  </si>
+  <si>
+    <t>Anas gracilis</t>
+  </si>
+  <si>
+    <t>Grey Warbler</t>
+  </si>
+  <si>
+    <t>Gerygone igata</t>
+  </si>
+  <si>
+    <t>Grey-Headed Mannikin</t>
+  </si>
+  <si>
+    <t>Lonchura caniceps</t>
+  </si>
+  <si>
+    <t>Horsfield's Bronze-Cuckoo</t>
+  </si>
+  <si>
+    <t>Chrysococcyx basalis</t>
+  </si>
+  <si>
+    <t>Horsfield's Bushlark</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Kākāpо̄</t>
+  </si>
+  <si>
+    <t>Strigops habroptila</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Kelp Gull</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Kererū</t>
+  </si>
+  <si>
+    <t>Hemiphaga novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Korimako</t>
+  </si>
+  <si>
+    <t>Anthornis melanura</t>
+  </si>
+  <si>
+    <t>Laughing Kookaburra</t>
+  </si>
+  <si>
+    <t>Dacelo novaeguineae</t>
+  </si>
+  <si>
+    <t>Lesser Frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata ariel</t>
+  </si>
+  <si>
+    <t>Lewin's Honeyeater</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Little Penguin</t>
+  </si>
+  <si>
+    <t>Eudyptula minor</t>
+  </si>
+  <si>
+    <t>Little Pied Cormorant</t>
+  </si>
+  <si>
+    <t>Microcarbo melanoleucos</t>
+  </si>
+  <si>
+    <t>Magpie-Lark</t>
+  </si>
+  <si>
+    <t>Grallina cyanoleuca</t>
+  </si>
+  <si>
+    <t>Major Mitchell's Cockatoo</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Malleefowl</t>
+  </si>
+  <si>
+    <t>Leipoa ocellata</t>
+  </si>
+  <si>
+    <t>Maned Duck</t>
+  </si>
+  <si>
+    <t>Chenonetta jubata</t>
+  </si>
+  <si>
+    <t>Many-Colored Fruit Dove</t>
+  </si>
+  <si>
+    <t>Ptilinopus perousii</t>
+  </si>
+  <si>
+    <t>Masked Lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus miles</t>
+  </si>
+  <si>
+    <t>Mistletoebird</t>
+  </si>
+  <si>
+    <t>Dicaeum hirundinaceum</t>
+  </si>
+  <si>
+    <t>Musk Duck</t>
+  </si>
+  <si>
+    <t>Biziura lobata</t>
+  </si>
+  <si>
+    <t>New Holland Honeyeater</t>
+  </si>
+  <si>
+    <t>Phylidonyris novaehollandiae</t>
+  </si>
+  <si>
+    <t>Noisy Miner</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>North Island Brown Kiwi</t>
+  </si>
+  <si>
+    <t>Apteryx mantelli</t>
+  </si>
+  <si>
+    <t>Orange-Footed Scrubfowl</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Pacific Black Duck</t>
+  </si>
+  <si>
+    <t>Anas superciliosa</t>
+  </si>
+  <si>
+    <t>Peaceful Dove</t>
+  </si>
+  <si>
+    <t>Geopelia placida</t>
+  </si>
+  <si>
+    <t>Pesquet's Parrot</t>
+  </si>
+  <si>
+    <t>Psittrichas fulgidus</t>
+  </si>
+  <si>
+    <t>Pheasant Coucal</t>
+  </si>
+  <si>
+    <t>Centropus phasianinus</t>
+  </si>
+  <si>
+    <t>Pink-Eared Duck</t>
+  </si>
+  <si>
+    <t>Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t>Plains-Wanderer</t>
+  </si>
+  <si>
+    <t>Pedionomus torquatus</t>
+  </si>
+  <si>
+    <t>Princess Stephanie's Astrapia</t>
+  </si>
+  <si>
+    <t>Astrapia stephaniae</t>
+  </si>
+  <si>
+    <t>Pūkeko</t>
+  </si>
+  <si>
+    <t>Porphyrio melanotus</t>
+  </si>
+  <si>
+    <t>Rainbow Lorikeet</t>
+  </si>
+  <si>
+    <t>Trichoglossus moluccanus</t>
+  </si>
+  <si>
+    <t>Red Wattlebird</t>
+  </si>
+  <si>
+    <t>Anthochaera carunculata</t>
+  </si>
+  <si>
+    <t>Red-Backed Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus melanocephalus</t>
+  </si>
+  <si>
+    <t>Red-Capped Robin</t>
+  </si>
+  <si>
+    <t>Petroica goodenovii</t>
+  </si>
+  <si>
+    <t>Red-Necked Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra novaehollandiae</t>
+  </si>
+  <si>
+    <t>Red-Winged Parrot</t>
+  </si>
+  <si>
+    <t>Aprosmictus erythropterus</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Sericulus chrysocephalus</t>
+  </si>
+  <si>
+    <t>Royal Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea regia</t>
+  </si>
+  <si>
+    <t>Rufous Night-Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Rufous Owl</t>
+  </si>
+  <si>
+    <t>Ninox rufa</t>
+  </si>
+  <si>
+    <t>Rufous-Banded Honeyeater</t>
+  </si>
+  <si>
+    <t>Conopophila albogularis</t>
+  </si>
+  <si>
+    <t>Sacred Kingfisher</t>
+  </si>
+  <si>
+    <t>Todiramphus sanctus</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>Zosterops lateralis</t>
+  </si>
+  <si>
+    <t>South Island Robin</t>
+  </si>
+  <si>
+    <t>Petroica australis</t>
+  </si>
+  <si>
+    <t>Southern Cassowary</t>
+  </si>
+  <si>
+    <t>Casuarius casuarius</t>
+  </si>
+  <si>
+    <t>Spangled Drongo</t>
+  </si>
+  <si>
+    <t>Dicrurus bracteatus</t>
+  </si>
+  <si>
+    <t>Splendid Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Spotless Crake</t>
+  </si>
+  <si>
+    <t>Zapornia tabuensis</t>
+  </si>
+  <si>
+    <t>Stubble Quail</t>
+  </si>
+  <si>
+    <t>Coturnix pectoralis</t>
+  </si>
+  <si>
+    <t>Sulphur-Crested Cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Superb Lyrebird</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Tūī</t>
+  </si>
+  <si>
+    <t>Prosthemadera novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Wedge-Tailed Eagle</t>
+  </si>
+  <si>
+    <t>Aquila audax</t>
+  </si>
+  <si>
+    <t>Welcome Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>White-Bellied Sea-Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucogaster</t>
+  </si>
+  <si>
+    <t>White-Breasted Woodswallow</t>
+  </si>
+  <si>
+    <t>Artamus leucoryn</t>
+  </si>
+  <si>
+    <t>White-Faced Heron</t>
+  </si>
+  <si>
+    <t>Egretta novaehollandiae</t>
+  </si>
+  <si>
+    <t>Willie-Wagtail</t>
+  </si>
+  <si>
+    <t>Rhipidura leucophrys</t>
+  </si>
+  <si>
+    <t>Wrybill</t>
+  </si>
+  <si>
+    <t>Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t>Forest Data Analyst</t>
+  </si>
+  <si>
+    <t>Grassland Data Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Site Selection Expert</t>
+  </si>
+  <si>
+    <t>Wetland Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -2576,12 +3161,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2662,8 +3253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F262" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
@@ -2677,8 +3268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
@@ -2966,23 +3557,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D262"/>
+    <sheetView topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3022,7 +3613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3042,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3062,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3082,7 +3673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3102,7 +3693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3122,7 +3713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3142,7 +3733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3162,7 +3753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3182,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3202,7 +3793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3222,7 +3813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3242,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3262,7 +3853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3282,7 +3873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3302,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3322,7 +3913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3342,7 +3933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3362,7 +3953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3382,7 +3973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3402,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3422,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3442,7 +4033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3462,7 +4053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3482,7 +4073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3502,7 +4093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3522,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3542,7 +4133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3562,7 +4153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3582,7 +4173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3602,7 +4193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3622,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3642,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3662,7 +4253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3682,7 +4273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3702,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3722,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3742,7 +4333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3762,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3782,7 +4373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3802,7 +4393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3822,7 +4413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3842,7 +4433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3862,7 +4453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3882,7 +4473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3902,7 +4493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3922,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3942,7 +4533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3962,7 +4553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3982,7 +4573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4002,7 +4593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4022,7 +4613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4042,7 +4633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4062,7 +4653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4082,7 +4673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4102,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4122,7 +4713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4142,7 +4733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4162,7 +4753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4182,7 +4773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4202,7 +4793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4222,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4242,7 +4833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4262,7 +4853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4282,7 +4873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4302,7 +4893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4322,7 +4913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4342,7 +4933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4362,7 +4953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4382,7 +4973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4402,7 +4993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4422,7 +5013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4442,7 +5033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4462,7 +5053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4482,7 +5073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4502,7 +5093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4522,7 +5113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4542,7 +5133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4562,7 +5153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4582,7 +5173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4602,7 +5193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4622,7 +5213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4642,7 +5233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4662,7 +5253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4682,7 +5273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4702,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4722,7 +5313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4742,7 +5333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4762,7 +5353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4782,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4802,7 +5393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4822,7 +5413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4842,7 +5433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4862,7 +5453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4882,7 +5473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4902,7 +5493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4922,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4942,7 +5533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4962,7 +5553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4982,7 +5573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5002,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5022,7 +5613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5042,7 +5633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5062,7 +5653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5082,7 +5673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5102,7 +5693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5122,7 +5713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5142,7 +5733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5162,7 +5753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5182,7 +5773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5202,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5222,7 +5813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5242,7 +5833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5262,7 +5853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5282,7 +5873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5302,7 +5893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5322,7 +5913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5342,7 +5933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5362,7 +5953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5382,7 +5973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5402,7 +5993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5422,7 +6013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5442,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5462,7 +6053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5482,7 +6073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5502,7 +6093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5522,7 +6113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5542,7 +6133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5562,7 +6153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5582,7 +6173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5602,7 +6193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5622,7 +6213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5642,7 +6233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5662,7 +6253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5682,7 +6273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5702,7 +6293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5722,7 +6313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5742,7 +6333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5762,7 +6353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5782,7 +6373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5802,7 +6393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5822,7 +6413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5842,7 +6433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5862,7 +6453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5882,7 +6473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5902,7 +6493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5922,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5942,7 +6533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5962,7 +6553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5982,7 +6573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6002,7 +6593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6022,7 +6613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6042,7 +6633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6062,7 +6653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6082,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6102,7 +6693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6122,7 +6713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6142,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6162,7 +6753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6182,7 +6773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6202,7 +6793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6222,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6242,7 +6833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6262,7 +6853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6282,7 +6873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6302,7 +6893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6322,7 +6913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6342,7 +6933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6362,7 +6953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6382,7 +6973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6402,7 +6993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6422,7 +7013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6442,7 +7033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6462,7 +7053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6482,7 +7073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6502,7 +7093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6522,7 +7113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6542,7 +7133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6562,7 +7153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6582,7 +7173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6602,7 +7193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6622,7 +7213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6642,7 +7233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6662,7 +7253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6682,7 +7273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6702,7 +7293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6722,7 +7313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6742,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6762,7 +7353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6782,7 +7373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6802,7 +7393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6822,7 +7413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6842,7 +7433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6862,7 +7453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6882,7 +7473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6902,7 +7493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6922,7 +7513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6942,7 +7533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6962,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6982,7 +7573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7002,7 +7593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7022,7 +7613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7042,7 +7633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7062,7 +7653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7082,7 +7673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7102,7 +7693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7122,7 +7713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7142,7 +7733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7162,7 +7753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7182,7 +7773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7202,7 +7793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7222,7 +7813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7242,7 +7833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7262,7 +7853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7282,7 +7873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7302,7 +7893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7322,7 +7913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7342,7 +7933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7362,7 +7953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7382,7 +7973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7402,7 +7993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7422,7 +8013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7442,7 +8033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7462,7 +8053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7482,7 +8073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7502,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7522,7 +8113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7542,7 +8133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7562,7 +8153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7582,7 +8173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7602,7 +8193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7622,7 +8213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7642,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -7662,7 +8253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -7682,7 +8273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -7702,7 +8293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -7722,7 +8313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -7742,7 +8333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -7762,7 +8353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -7782,7 +8373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -7802,7 +8393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -7822,7 +8413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -7842,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -7862,7 +8453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -7882,7 +8473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -7902,7 +8493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -7922,7 +8513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -7942,7 +8533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -7962,7 +8553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -7982,7 +8573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8002,7 +8593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8022,7 +8613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8042,7 +8633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8062,7 +8653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8082,7 +8673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8102,7 +8693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8122,7 +8713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8142,7 +8733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8162,7 +8753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8182,7 +8773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8202,7 +8793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8221,6 +8812,1336 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>264</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>265</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>266</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>267</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>268</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>269</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>270</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>271</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>272</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>273</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>274</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>275</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>276</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>277</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>278</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>279</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>280</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>281</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>282</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>283</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>284</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>285</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>286</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>287</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>288</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>289</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>290</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>291</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>292</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>293</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>294</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>295</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>296</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>297</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>298</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>299</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>300</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>301</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>302</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>303</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>304</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>305</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>306</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>307</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>308</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>309</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>310</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>311</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>312</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>313</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>314</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>315</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>316</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>317</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>318</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>319</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>320</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>321</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>322</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>323</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>324</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>325</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>326</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>327</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>328</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>329</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>330</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>331</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>332</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>333</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>334</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>335</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>336</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>337</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>338</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>339</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>340</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>341</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>342</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>343</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>344</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>345</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>346</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>347</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>348</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>349</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>350</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>351</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>352</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>353</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>354</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>355</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>356</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>357</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>358</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8232,22 +10153,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +10193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8293,7 +10216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -8316,7 +10239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -8339,7 +10262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -8362,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -8385,7 +10308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -8408,7 +10331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -8431,7 +10354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -8454,7 +10377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -8477,7 +10400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -8500,7 +10423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -8523,7 +10446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -8546,7 +10469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -8569,7 +10492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -8592,7 +10515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -8615,7 +10538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -8638,7 +10561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -8661,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -8684,7 +10607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -8707,7 +10630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -8730,7 +10653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -8753,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -8776,7 +10699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -8799,7 +10722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -8822,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -8845,7 +10768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -8868,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -8891,7 +10814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -8914,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -8937,7 +10860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -8960,7 +10883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -8983,7 +10906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -9006,7 +10929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -9028,6 +10951,71 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9045,13 +11033,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9059,27 +11047,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>571</v>
       </c>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10040E8-5A39-4893-8444-9F5FFBE5C914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122696E-8412-40B8-9D8D-1A8D0ABAB64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1029">
   <si>
     <t>id</t>
   </si>
@@ -3126,6 +3126,9 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
@@ -3284,8 +3287,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
     <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
@@ -10155,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B39"/>
     </sheetView>
   </sheetViews>
@@ -11027,10 +11030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11069,6 +11072,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>571</v>
       </c>
     </row>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122696E-8412-40B8-9D8D-1A8D0ABAB64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D35F0D-B740-4601-A3BB-FBC6AB37CB1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1030">
   <si>
     <t>id</t>
   </si>
@@ -3129,6 +3129,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3180,19 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3226,14 +3241,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3256,15 +3275,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{DC92D6C3-F2C6-4675-B4E7-C3F15F1A9EA7}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6DF3D88D-C26D-42F0-BC67-9A500E4FDF2B}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D44E0344-874A-4EC2-9C46-E76DDBFE123A}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{03A8A058-2F24-4371-B413-EA17CC6B9AAA}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3275,12 +3298,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3560,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,7 +3599,7 @@
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3595,8 +3618,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3615,8 +3650,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3635,8 +3682,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3655,8 +3714,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3675,8 +3746,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3695,8 +3778,20 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3715,8 +3810,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3735,8 +3842,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3755,8 +3874,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3775,8 +3906,20 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3795,8 +3938,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3815,8 +3970,20 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3835,8 +4002,20 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3855,8 +4034,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3875,8 +4066,20 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3895,8 +4098,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3915,8 +4130,20 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3935,8 +4162,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3955,8 +4194,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3975,8 +4226,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3995,8 +4258,20 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4015,8 +4290,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4035,8 +4322,20 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4055,8 +4354,20 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4075,8 +4386,20 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4095,8 +4418,20 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4115,8 +4450,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4135,8 +4482,20 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4155,8 +4514,20 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4175,8 +4546,20 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4195,8 +4578,20 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4215,8 +4610,20 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4235,8 +4642,20 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4255,8 +4674,20 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4275,8 +4706,20 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4295,8 +4738,20 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4315,8 +4770,20 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4335,8 +4802,20 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4355,8 +4834,20 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4375,8 +4866,20 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4395,8 +4898,20 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4415,8 +4930,20 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4435,8 +4962,20 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4455,8 +4994,20 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4475,8 +5026,20 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4495,8 +5058,20 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4515,8 +5090,20 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4535,8 +5122,20 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4555,8 +5154,20 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4575,8 +5186,20 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4595,8 +5218,20 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4615,8 +5250,20 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4635,8 +5282,20 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4655,8 +5314,20 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4675,8 +5346,20 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4695,8 +5378,20 @@
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4715,8 +5410,20 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4735,8 +5442,20 @@
       <c r="F58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4755,8 +5474,20 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4775,8 +5506,20 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4795,8 +5538,20 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4815,8 +5570,20 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4835,8 +5602,20 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4855,8 +5634,20 @@
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4875,8 +5666,20 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4895,8 +5698,20 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4915,8 +5730,20 @@
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4935,8 +5762,20 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4955,8 +5794,20 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4975,8 +5826,20 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4995,8 +5858,20 @@
       <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5015,8 +5890,20 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5035,8 +5922,20 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5055,8 +5954,20 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5075,8 +5986,20 @@
       <c r="F75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5095,8 +6018,20 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5115,8 +6050,20 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5135,8 +6082,20 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5155,8 +6114,20 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5175,8 +6146,20 @@
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5195,8 +6178,20 @@
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5215,8 +6210,20 @@
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5235,8 +6242,20 @@
       <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5255,8 +6274,20 @@
       <c r="F84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5275,8 +6306,20 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5295,8 +6338,20 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5315,8 +6370,20 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5335,8 +6402,20 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5355,8 +6434,20 @@
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5375,8 +6466,20 @@
       <c r="F90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5395,8 +6498,20 @@
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5415,8 +6530,20 @@
       <c r="F92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5435,8 +6562,20 @@
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5455,8 +6594,20 @@
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5475,8 +6626,20 @@
       <c r="F95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5495,8 +6658,20 @@
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5515,8 +6690,20 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5535,8 +6722,20 @@
       <c r="F98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5555,8 +6754,20 @@
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5575,8 +6786,20 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5595,8 +6818,20 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5615,8 +6850,20 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5635,8 +6882,20 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5655,8 +6914,20 @@
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5675,8 +6946,20 @@
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5695,8 +6978,20 @@
       <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5715,8 +7010,20 @@
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5735,8 +7042,20 @@
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5755,8 +7074,20 @@
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5775,8 +7106,20 @@
       <c r="F110" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5795,8 +7138,20 @@
       <c r="F111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5815,8 +7170,20 @@
       <c r="F112" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5835,8 +7202,20 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5855,8 +7234,20 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5875,8 +7266,20 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5895,8 +7298,20 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5915,8 +7330,20 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5935,8 +7362,20 @@
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5955,8 +7394,20 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5975,8 +7426,20 @@
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5995,8 +7458,20 @@
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6015,8 +7490,20 @@
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6035,8 +7522,20 @@
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6055,8 +7554,20 @@
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6075,8 +7586,20 @@
       <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6095,8 +7618,20 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6115,8 +7650,20 @@
       <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6135,8 +7682,20 @@
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6155,8 +7714,20 @@
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6175,8 +7746,20 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -6195,8 +7778,20 @@
       <c r="F131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -6215,8 +7810,20 @@
       <c r="F132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -6235,8 +7842,20 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6255,8 +7874,20 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6275,8 +7906,20 @@
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -6295,8 +7938,20 @@
       <c r="F136" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -6315,8 +7970,20 @@
       <c r="F137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -6335,8 +8002,20 @@
       <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -6355,8 +8034,20 @@
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -6375,8 +8066,20 @@
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -6395,8 +8098,20 @@
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -6415,8 +8130,20 @@
       <c r="F142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -6435,8 +8162,20 @@
       <c r="F143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6455,8 +8194,20 @@
       <c r="F144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6475,8 +8226,20 @@
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6495,8 +8258,20 @@
       <c r="F146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6515,8 +8290,20 @@
       <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -6535,8 +8322,20 @@
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -6555,8 +8354,20 @@
       <c r="F149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -6575,8 +8386,20 @@
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6595,8 +8418,20 @@
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6615,8 +8450,20 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6635,8 +8482,20 @@
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6655,8 +8514,20 @@
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6675,8 +8546,20 @@
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6695,8 +8578,20 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6715,8 +8610,20 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6735,8 +8642,20 @@
       <c r="F158" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6755,8 +8674,20 @@
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6775,8 +8706,20 @@
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6795,8 +8738,20 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6815,8 +8770,20 @@
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6835,8 +8802,20 @@
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6855,8 +8834,20 @@
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6875,8 +8866,20 @@
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6895,8 +8898,20 @@
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6915,8 +8930,20 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6935,8 +8962,20 @@
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6955,8 +8994,20 @@
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6975,8 +9026,20 @@
       <c r="F170" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6995,8 +9058,20 @@
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -7015,8 +9090,20 @@
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -7035,8 +9122,20 @@
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -7055,8 +9154,20 @@
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -7075,8 +9186,20 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -7095,8 +9218,20 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -7115,8 +9250,20 @@
       <c r="F177" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -7135,8 +9282,20 @@
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -7155,8 +9314,20 @@
       <c r="F179" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -7175,8 +9346,20 @@
       <c r="F180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -7195,8 +9378,20 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -7215,8 +9410,20 @@
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -7235,8 +9442,20 @@
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7255,8 +9474,20 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7275,8 +9506,20 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -7295,8 +9538,20 @@
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -7315,8 +9570,20 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -7335,8 +9602,20 @@
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -7355,8 +9634,20 @@
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -7375,8 +9666,20 @@
       <c r="F190" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -7395,8 +9698,20 @@
       <c r="F191" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -7415,8 +9730,20 @@
       <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -7435,8 +9762,20 @@
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -7455,8 +9794,20 @@
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -7475,8 +9826,20 @@
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7495,8 +9858,20 @@
       <c r="F196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7515,8 +9890,20 @@
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7535,8 +9922,20 @@
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -7555,8 +9954,20 @@
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -7575,8 +9986,20 @@
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7595,8 +10018,20 @@
       <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7615,8 +10050,20 @@
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7635,8 +10082,20 @@
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7655,8 +10114,20 @@
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7675,8 +10146,20 @@
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7695,8 +10178,20 @@
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7715,8 +10210,20 @@
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7735,8 +10242,20 @@
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7755,8 +10274,20 @@
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7775,8 +10306,20 @@
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7795,8 +10338,20 @@
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7815,8 +10370,20 @@
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7835,8 +10402,20 @@
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7855,8 +10434,20 @@
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7875,8 +10466,20 @@
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7895,8 +10498,20 @@
       <c r="F216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7915,8 +10530,20 @@
       <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7935,8 +10562,20 @@
       <c r="F218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7955,8 +10594,20 @@
       <c r="F219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7975,8 +10626,20 @@
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7995,8 +10658,20 @@
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -8015,8 +10690,20 @@
       <c r="F222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -8035,8 +10722,20 @@
       <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -8055,8 +10754,20 @@
       <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -8075,8 +10786,20 @@
       <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -8095,8 +10818,20 @@
       <c r="F226" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -8115,8 +10850,20 @@
       <c r="F227" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -8135,8 +10882,20 @@
       <c r="F228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -8155,8 +10914,20 @@
       <c r="F229" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -8175,8 +10946,20 @@
       <c r="F230" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -8195,8 +10978,20 @@
       <c r="F231" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -8215,8 +11010,20 @@
       <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -8235,8 +11042,20 @@
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -8255,8 +11074,20 @@
       <c r="F234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -8275,8 +11106,20 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -8295,8 +11138,20 @@
       <c r="F236" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -8315,8 +11170,20 @@
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -8335,8 +11202,20 @@
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -8355,8 +11234,20 @@
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -8375,8 +11266,20 @@
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -8395,8 +11298,20 @@
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -8415,8 +11330,20 @@
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -8435,8 +11362,20 @@
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -8455,8 +11394,20 @@
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -8475,8 +11426,20 @@
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -8495,8 +11458,20 @@
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -8515,8 +11490,20 @@
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -8535,8 +11522,20 @@
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -8555,8 +11554,20 @@
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -8575,8 +11586,20 @@
       <c r="F250" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8595,8 +11618,20 @@
       <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8615,8 +11650,20 @@
       <c r="F252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8635,8 +11682,20 @@
       <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8655,8 +11714,20 @@
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8675,8 +11746,20 @@
       <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8695,8 +11778,20 @@
       <c r="F256" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8715,8 +11810,20 @@
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8735,8 +11842,20 @@
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8755,8 +11874,20 @@
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8775,8 +11906,20 @@
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8795,8 +11938,20 @@
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8815,8 +11970,20 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>264</v>
       </c>
@@ -8829,8 +11996,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>265</v>
       </c>
@@ -8843,8 +12022,20 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>266</v>
       </c>
@@ -8857,8 +12048,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>267</v>
       </c>
@@ -8871,8 +12074,20 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>268</v>
       </c>
@@ -8885,8 +12100,20 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>269</v>
       </c>
@@ -8899,8 +12126,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>270</v>
       </c>
@@ -8913,8 +12152,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>271</v>
       </c>
@@ -8927,8 +12178,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>272</v>
       </c>
@@ -8941,8 +12204,20 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>273</v>
       </c>
@@ -8955,8 +12230,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>274</v>
       </c>
@@ -8969,8 +12256,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>275</v>
       </c>
@@ -8983,8 +12282,20 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>276</v>
       </c>
@@ -8997,8 +12308,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>277</v>
       </c>
@@ -9011,8 +12334,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>278</v>
       </c>
@@ -9025,8 +12360,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>279</v>
       </c>
@@ -9039,8 +12386,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>280</v>
       </c>
@@ -9053,8 +12412,20 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>281</v>
       </c>
@@ -9067,8 +12438,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>282</v>
       </c>
@@ -9081,8 +12464,20 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>283</v>
       </c>
@@ -9095,8 +12490,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>284</v>
       </c>
@@ -9109,8 +12516,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>285</v>
       </c>
@@ -9123,8 +12542,20 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>286</v>
       </c>
@@ -9137,8 +12568,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>287</v>
       </c>
@@ -9151,8 +12594,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>288</v>
       </c>
@@ -9165,8 +12620,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>289</v>
       </c>
@@ -9179,8 +12646,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>290</v>
       </c>
@@ -9193,8 +12672,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>291</v>
       </c>
@@ -9207,8 +12698,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>292</v>
       </c>
@@ -9221,8 +12724,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>293</v>
       </c>
@@ -9235,8 +12750,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>294</v>
       </c>
@@ -9249,8 +12776,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>295</v>
       </c>
@@ -9263,8 +12802,20 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>296</v>
       </c>
@@ -9277,8 +12828,20 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>297</v>
       </c>
@@ -9291,8 +12854,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>298</v>
       </c>
@@ -9305,8 +12880,20 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>299</v>
       </c>
@@ -9319,8 +12906,20 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>300</v>
       </c>
@@ -9333,8 +12932,20 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>301</v>
       </c>
@@ -9347,8 +12958,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>302</v>
       </c>
@@ -9361,8 +12984,20 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>303</v>
       </c>
@@ -9375,8 +13010,20 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>304</v>
       </c>
@@ -9389,8 +13036,20 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>305</v>
       </c>
@@ -9403,8 +13062,20 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>306</v>
       </c>
@@ -9417,8 +13088,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>307</v>
       </c>
@@ -9431,8 +13114,20 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>308</v>
       </c>
@@ -9445,8 +13140,20 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>309</v>
       </c>
@@ -9459,8 +13166,20 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>310</v>
       </c>
@@ -9473,8 +13192,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>311</v>
       </c>
@@ -9487,8 +13218,20 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>312</v>
       </c>
@@ -9501,8 +13244,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>313</v>
       </c>
@@ -9515,8 +13270,20 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>314</v>
       </c>
@@ -9529,8 +13296,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>315</v>
       </c>
@@ -9543,8 +13322,20 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>316</v>
       </c>
@@ -9557,8 +13348,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>317</v>
       </c>
@@ -9571,8 +13374,20 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>318</v>
       </c>
@@ -9585,8 +13400,20 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>319</v>
       </c>
@@ -9599,8 +13426,20 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>320</v>
       </c>
@@ -9613,8 +13452,20 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>321</v>
       </c>
@@ -9627,8 +13478,20 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>322</v>
       </c>
@@ -9641,8 +13504,20 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>323</v>
       </c>
@@ -9655,8 +13530,20 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>324</v>
       </c>
@@ -9669,8 +13556,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>325</v>
       </c>
@@ -9683,8 +13582,20 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>326</v>
       </c>
@@ -9697,8 +13608,20 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>327</v>
       </c>
@@ -9711,8 +13634,20 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>328</v>
       </c>
@@ -9725,8 +13660,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>329</v>
       </c>
@@ -9739,8 +13686,20 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>330</v>
       </c>
@@ -9753,8 +13712,20 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>331</v>
       </c>
@@ -9767,8 +13738,20 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>332</v>
       </c>
@@ -9781,8 +13764,20 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>333</v>
       </c>
@@ -9795,8 +13790,20 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>334</v>
       </c>
@@ -9809,8 +13816,20 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>335</v>
       </c>
@@ -9823,8 +13842,20 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>336</v>
       </c>
@@ -9837,8 +13868,20 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>337</v>
       </c>
@@ -9851,8 +13894,20 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>338</v>
       </c>
@@ -9865,8 +13920,20 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>339</v>
       </c>
@@ -9879,8 +13946,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>340</v>
       </c>
@@ -9893,8 +13972,20 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>341</v>
       </c>
@@ -9907,8 +13998,20 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>342</v>
       </c>
@@ -9921,8 +14024,20 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>343</v>
       </c>
@@ -9935,8 +14050,20 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>344</v>
       </c>
@@ -9949,8 +14076,20 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>345</v>
       </c>
@@ -9963,8 +14102,20 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>346</v>
       </c>
@@ -9977,8 +14128,20 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>347</v>
       </c>
@@ -9991,8 +14154,20 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>348</v>
       </c>
@@ -10005,8 +14180,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>349</v>
       </c>
@@ -10019,8 +14206,20 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>350</v>
       </c>
@@ -10033,8 +14232,20 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>351</v>
       </c>
@@ -10047,8 +14258,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>352</v>
       </c>
@@ -10061,8 +14284,20 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>353</v>
       </c>
@@ -10075,8 +14310,20 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>354</v>
       </c>
@@ -10089,8 +14336,20 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>355</v>
       </c>
@@ -10103,8 +14362,20 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>356</v>
       </c>
@@ -10117,8 +14388,20 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>357</v>
       </c>
@@ -10131,8 +14414,20 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>358</v>
       </c>
@@ -10145,6 +14440,18 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11032,7 +15339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelramirez/Projects/wingsearch/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7024B832-4CF6-E746-A7C4-DC011C143F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370155CF-DADD-2143-8450-30156C953628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28580" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelramirez/Projects/wingsearch/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\wingspan\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370155CF-DADD-2143-8450-30156C953628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A960AB7-AA63-4A60-9F99-00D493A55BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28580" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="2205" windowWidth="28875" windowHeight="17235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1397">
   <si>
     <t>id</t>
   </si>
@@ -3773,9 +3773,6 @@
     <t>Descarta 1 [egg] de cualquiera de tus otras aves para obtener 2 [wild] del suministro.</t>
   </si>
   <si>
-    <t>Mira una [card] del mazo. Si su envergadura es inferior a 75 cm, solápala bajo esta carta. De lo contratio, descártala.</t>
-  </si>
-  <si>
     <t>Juega una segunda ave en tu [grassland]. Paga su coste normal.</t>
   </si>
   <si>
@@ -3813,6 +3810,429 @@
   </si>
   <si>
     <t>Descarta 1 [fish] para solapar 2 [card] del mazo bajo esta ave.</t>
+  </si>
+  <si>
+    <t>Mira una [card] del mazo. Si su envergadura es inferior a 100 cm, solápala bajo esta carta. De lo contrario, descártala.</t>
+  </si>
+  <si>
+    <t>Mira una [card] del mazo. Si su envergadura es inferior a 50 cm, solápala bajo esta carta. De lo contrario, descártala.</t>
+  </si>
+  <si>
+    <t>Mira una [card] del mazo. Si su envergadura es inferior a 75 cm, solápala bajo esta carta. De lo contrario, descártala.</t>
+  </si>
+  <si>
+    <t>Todos los jugadores obtienen 1 [invertebrate] del suministro.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador juegue un ave en [forest], obtienes 1 [invertebrate] del suministro.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador realice la acción de obtener alimento, si obtiene cualquier número de [rodent], obtienes 1 [rodent] del suministro y lo almacenas en esta carta.</t>
+  </si>
+  <si>
+    <t>Todos los jugadores ponen 1 [egg] en 1 ave [bowl] cualquiera. Puedes poner 1 [egg] en 1 ave [bowl] adicional.</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, pon también 1 [egg] en esta ave.</t>
+  </si>
+  <si>
+    <t>Juega una segunda ave en tu [wetland]. Paga su coste normal.</t>
+  </si>
+  <si>
+    <t>Repite un poder marrón de otra ave de este hábitat.</t>
+  </si>
+  <si>
+    <t>Descarta 1 [egg] para robar 2 [card].</t>
+  </si>
+  <si>
+    <t>Roba 1 [card]. Si lo haces, descarta 1 [card] de tu mano al final del turno.</t>
+  </si>
+  <si>
+    <t>Descarta 1 [egg] de cualquiera de tus otras aves para obtener 1 [wild] del suministro.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [seed] del suministro y almacénalo en esta carta.</t>
+  </si>
+  <si>
+    <t>Pon 1 [egg] en cada una de tus aves con un nido [platform].</t>
+  </si>
+  <si>
+    <t>Juega una segunda ave en tu [grassland] o en tu [forest]. Paga su coste normal.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador juegue un ave en [grassland], solapa 1 [card] de tu mano bajo esta ave.</t>
+  </si>
+  <si>
+    <t>Repite un poder [predator] en este hábitat.</t>
+  </si>
+  <si>
+    <t>Los jugadores con menos aves en su hábitat [forest] obtienen 1 [die] del comedero.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador juegue un ave en [wetland], obtienes 1 [fish] del suministro.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador realice la acción de poner huevos, esta ave pone 1 [egg] en otra ave con un nido [cavity].</t>
+  </si>
+  <si>
+    <t>Todos los jugadores obtienen 1 [fruit] del suministro.</t>
+  </si>
+  <si>
+    <t>Obtén todos los [fish] que haya en el comedero.</t>
+  </si>
+  <si>
+    <t>Pon 1 [egg] en cada una de tus aves con un nido [cavity].</t>
+  </si>
+  <si>
+    <t>Cada jugador obtiene 1 [die] del comedero, empezando por el jugador que elijas.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [seed] (si lo hay) del comedero. Puedes almacenarlo en esta carta.</t>
+  </si>
+  <si>
+    <t>Todos los jugadores roban 1 [card] del mazo.</t>
+  </si>
+  <si>
+    <t>Los jugadores con menos aves en su hábitat [wetland] obtienen 1 [card] del comedero.</t>
+  </si>
+  <si>
+    <t>Obtén todos los [invertebrate] que haya en el comedero.</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, obtén 1 [invertebrate] o 1 [seed] del suministro.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [invertebrate] del comedero, si lo hay.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [invertebrate] o [fruit] del comedero, si lo hay.</t>
+  </si>
+  <si>
+    <t>Tira todos los datos que no estén en el comedero. Si en alguno sale [fish], obtén 1 [fish] y almacénalo en esta carta.</t>
+  </si>
+  <si>
+    <t>Tira todos los datos que no estén en el comedero. Si en alguno sale [rodent], obtén 1 [rodent] y almacénalo en esta carta.</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, obtén 1 [seed] del suministro.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador tenga éxito en su [predator], obtienes 1 [die] del comedero.</t>
+  </si>
+  <si>
+    <t>Todos los jugadores ponen 1 [egg] en 1 ave [cavity] cualquiera. Puedes poner 1 [egg] en 1 ave [cavity] adicional.</t>
+  </si>
+  <si>
+    <t>Rova 2 nuevas cartas de bonificación y quédate 1.</t>
+  </si>
+  <si>
+    <t>Pon 1 [egg] en cada una de tus aves con un nido [bowl]</t>
+  </si>
+  <si>
+    <t>Todos los jugadores obtienen 1 [seed] del suministro.</t>
+  </si>
+  <si>
+    <t>Pon 1 [egg] en esta ave.</t>
+  </si>
+  <si>
+    <t>Roba 1 [card].</t>
+  </si>
+  <si>
+    <t>Cambia 1 [wild] por cualquier otro [wild] del suministro.</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador realice la acción de poner huevos, esta ave pone 1 [egg] en otra ave con un nido [bowl].</t>
+  </si>
+  <si>
+    <t>Obtén 1 [invertebrate] del suministro.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [invertebrate] o 1 [fruit] del comedero si lo hay.</t>
+  </si>
+  <si>
+    <t>Obtén 3 [seed] del suministro.</t>
+  </si>
+  <si>
+    <t>Los jugadores con menos aves en su hábitat [wetland] roban 1 [card]</t>
+  </si>
+  <si>
+    <t>Cuando otro jugador realice la acción de poner huevos, esta ave pone 1 [egg] en otra ave con un nido [ground].</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, obtén 1 [fruit] del suministro.</t>
+  </si>
+  <si>
+    <t>Roba 2 [card].</t>
+  </si>
+  <si>
+    <t>Descarta 1 [seed] para solapar 2 [card] del mazo bajo esta ave.</t>
+  </si>
+  <si>
+    <t>Obtén 3 [fish] del suministo.</t>
+  </si>
+  <si>
+    <t>Obten 1 [invertebrate] del suministro.</t>
+  </si>
+  <si>
+    <t>Roba tantas [card] como el número de jugadores +1. Empezando por ti y en el sentido de las agujas del reloj, cada jugador elige 1 de ellas y la pone en su mano. Tú te quedas la carta extra.</t>
+  </si>
+  <si>
+    <t>Obtén 1 [fruit] del suministro.</t>
+  </si>
+  <si>
+    <t>Pon 1 [egg] en cada una de tus aves con un nido [ground].</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, pon 1 [egg] en cualquier ave.</t>
+  </si>
+  <si>
+    <t>Roba las 3 [card] bocarriba de la bandeja de aves.</t>
+  </si>
+  <si>
+    <t>Obten 1 [wild] del comedero.</t>
+  </si>
+  <si>
+    <t>Solapa una [card] de tu mano bajo esta ave. Si lo haces, obtén 1 [invertebrate] del suministro.</t>
+  </si>
+  <si>
+    <t>Viticultor</t>
+  </si>
+  <si>
+    <t>Aves que comen [fruit]</t>
+  </si>
+  <si>
+    <t>Cualquier ave con un icono de [fruit]. El ave puede comer también otros tipos de alimento.</t>
+  </si>
+  <si>
+    <t>Contador de aves</t>
+  </si>
+  <si>
+    <t>Aves con poder de tipo [flocking]</t>
+  </si>
+  <si>
+    <t>2 o 3 aves: 3[point]; 4 aves o más: 7[point]</t>
+  </si>
+  <si>
+    <t>2[point] por ave</t>
+  </si>
+  <si>
+    <t>Oólogo</t>
+  </si>
+  <si>
+    <t>Aves que tienen 1 huevo o más sobre ellas</t>
+  </si>
+  <si>
+    <t>7 o 8 aves: 3[point]; 9 aves o más: 6[point]</t>
+  </si>
+  <si>
+    <t>Jardinero silvestre</t>
+  </si>
+  <si>
+    <t>Aves con nidos de tipo [bowl]</t>
+  </si>
+  <si>
+    <t>4 o 5 aves: 4[point]; 6 aves o más: 7[point]</t>
+  </si>
+  <si>
+    <t>Experto en red trófica</t>
+  </si>
+  <si>
+    <t>Aves que solo comen [invertebrate]</t>
+  </si>
+  <si>
+    <t>Cualquier ave que solo tenga el icono de [invertebrate] y ningún otro icono de alimento.</t>
+  </si>
+  <si>
+    <t>Silvicultor</t>
+  </si>
+  <si>
+    <t>Aves que solo pueden vivir en [forest]</t>
+  </si>
+  <si>
+    <t>Cualquier ave que solo tenga el icono de [forest] y ningún otro icono de hábitat.</t>
+  </si>
+  <si>
+    <t>3 o 4 aves: 4[point]; 5 aves: 8[point]</t>
+  </si>
+  <si>
+    <t>Constructor de cajas nido</t>
+  </si>
+  <si>
+    <t>Aves con nidos de tipo [cavity]</t>
+  </si>
+  <si>
+    <t>Criador de aves</t>
+  </si>
+  <si>
+    <t>Aves que tienen 4 huevos o más sobre ellas</t>
+  </si>
+  <si>
+    <t>1[point] por ave</t>
+  </si>
+  <si>
+    <t>Experto en humedales</t>
+  </si>
+  <si>
+    <t>Aves que solo pueden vivir en [weland]</t>
+  </si>
+  <si>
+    <t>Cualquier ave que solo tenga el icono de [wetland] y ningún otro icono de hábitat.</t>
+  </si>
+  <si>
+    <t>3 o 4 aves: 3[point]; 5 aves: 7[point]</t>
+  </si>
+  <si>
+    <t>Pascicultor</t>
+  </si>
+  <si>
+    <t>Aves que solo pueden vivir en [grassland]</t>
+  </si>
+  <si>
+    <t>Cualquier ave que solo tenga el icono de [grassland] y ningún otro icono de hábitat.</t>
+  </si>
+  <si>
+    <t>Las aves deben tener un icono de nido de tipo [cavity] o [star].</t>
+  </si>
+  <si>
+    <t>Las aves deben tener un icono de nido de tipo [bowl] o [star].</t>
+  </si>
+  <si>
+    <t>2 o 3 aves: 3[point]; 4 aves o más: 8[point]</t>
+  </si>
+  <si>
+    <t>Especialista en grandes aves</t>
+  </si>
+  <si>
+    <t>Aves con envergadura de más de 65 cm</t>
+  </si>
+  <si>
+    <t>4 o 5 aves: 3[point]; 6 aves o más: 6[point]</t>
+  </si>
+  <si>
+    <t>Halconero</t>
+  </si>
+  <si>
+    <t>Aves con poder de tipo [predator]</t>
+  </si>
+  <si>
+    <t>Especialista en paseriformes</t>
+  </si>
+  <si>
+    <t>Aves con envergadura de 30 cm o menos</t>
+  </si>
+  <si>
+    <t>Aves que comen [seed]</t>
+  </si>
+  <si>
+    <t>Cualquier ave con un icono de [seed]. El ave puede comer también otros tipos de alimento.</t>
+  </si>
+  <si>
+    <t>De 5 a 7 aves: 3[point]; 8 aves o más: 7[point]</t>
+  </si>
+  <si>
+    <t>Fotógrafo</t>
+  </si>
+  <si>
+    <t>Aves con el icono de fotografo</t>
+  </si>
+  <si>
+    <t>En otras versiones la regla es "Aves con colores en el nombre"</t>
+  </si>
+  <si>
+    <t>Constructor de plataformas</t>
+  </si>
+  <si>
+    <t>Aves con nidos de tipo [platform]</t>
+  </si>
+  <si>
+    <t>Las aves deben tener un icono de nido de tipo [platform] o [star].</t>
+  </si>
+  <si>
+    <t>Experto en omnívoros</t>
+  </si>
+  <si>
+    <t>Aves que comen [wild]</t>
+  </si>
+  <si>
+    <t>Cualquier ave que tenga específicamente el icono de [wild] como parte de su coste en alimento.</t>
+  </si>
+  <si>
+    <t>Líder visionario</t>
+  </si>
+  <si>
+    <t>Cartas de ave en la mano al final de la partida</t>
+  </si>
+  <si>
+    <t>De 5 a 7 aves: 4[point]; 8 aves o más: 7[point]</t>
+  </si>
+  <si>
+    <t>Ecologista</t>
+  </si>
+  <si>
+    <t>Aves en tu hábitat con menos aves.</t>
+  </si>
+  <si>
+    <t>Los empates cuentan: si tienes 3 aves en cada hábitat, tú habitat con menos aves será de 3 aves.</t>
+  </si>
+  <si>
+    <t>Anatomista</t>
+  </si>
+  <si>
+    <t>Aves con el icono de anatomisa</t>
+  </si>
+  <si>
+    <t>En otras versiones la regla es "Aves con partes del cuerpo en el nombre"</t>
+  </si>
+  <si>
+    <t>Aficionado de jardín</t>
+  </si>
+  <si>
+    <t>Aves que valen al menos 4 puntos</t>
+  </si>
+  <si>
+    <t>5 o 6 aves: 3[point]; 7 aves o más: 6[point]</t>
+  </si>
+  <si>
+    <t>Historiador</t>
+  </si>
+  <si>
+    <t>Aves con el icono de historiador</t>
+  </si>
+  <si>
+    <t>En otras versiones la regla es "Aves con el nombre de una persona"</t>
+  </si>
+  <si>
+    <t>Constructor de cercados</t>
+  </si>
+  <si>
+    <t>Aves con nidos de tipo [ground]</t>
+  </si>
+  <si>
+    <t>Las aves deben tener un icono de nido de tipo [ground] o [star].</t>
+  </si>
+  <si>
+    <t>Cartógrafo</t>
+  </si>
+  <si>
+    <t>Aves con el icono de cartógrafo</t>
+  </si>
+  <si>
+    <t>En otras versiones la regla es "Aves que tengan terminos de geografía en el nombre"</t>
+  </si>
+  <si>
+    <t>Piscicultor</t>
+  </si>
+  <si>
+    <t>Aves que comen [fish]</t>
+  </si>
+  <si>
+    <t>Cualquier ave con un icono de [fish]. El ave puede comer también otros tipos de alimento.</t>
+  </si>
+  <si>
+    <t>Rodentólogo</t>
+  </si>
+  <si>
+    <t>Aves que comen [rodent]</t>
   </si>
 </sst>
 </file>
@@ -4058,21 +4478,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="149.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4123,8 +4543,11 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4140,11 +4563,14 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" t="s">
+        <v>1304</v>
+      </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4160,11 +4586,14 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
+      <c r="F4" t="s">
+        <v>1303</v>
+      </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4180,11 +4609,14 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
+      <c r="F5" t="s">
+        <v>1249</v>
+      </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4200,11 +4632,14 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>1268</v>
+      </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4220,6 +4655,9 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
+      <c r="F7" t="s">
+        <v>1302</v>
+      </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4243,11 +4681,14 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
+      <c r="F8" t="s">
+        <v>1289</v>
+      </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4263,11 +4704,14 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
+      <c r="F9" t="s">
+        <v>1310</v>
+      </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4283,6 +4727,9 @@
       <c r="E10" t="s">
         <v>40</v>
       </c>
+      <c r="F10" t="s">
+        <v>1315</v>
+      </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
@@ -4290,7 +4737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4307,13 +4754,13 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4330,7 +4777,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -4339,7 +4786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4359,7 +4806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4375,11 +4822,14 @@
       <c r="E14" t="s">
         <v>52</v>
       </c>
+      <c r="F14" t="s">
+        <v>1288</v>
+      </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4395,8 +4845,11 @@
       <c r="E15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4412,6 +4865,9 @@
       <c r="E16" t="s">
         <v>58</v>
       </c>
+      <c r="F16" t="s">
+        <v>1279</v>
+      </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4435,6 +4891,9 @@
       <c r="E17" t="s">
         <v>61</v>
       </c>
+      <c r="F17" t="s">
+        <v>1246</v>
+      </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
@@ -4442,7 +4901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4459,7 +4918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4475,8 +4934,11 @@
       <c r="E19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4492,8 +4954,11 @@
       <c r="E20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4509,11 +4974,14 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
+      <c r="F21" t="s">
+        <v>1277</v>
+      </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4529,8 +4997,11 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4546,8 +5017,11 @@
       <c r="E23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4563,11 +5037,14 @@
       <c r="E24" t="s">
         <v>83</v>
       </c>
+      <c r="F24" t="s">
+        <v>1258</v>
+      </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4583,6 +5060,9 @@
       <c r="E25" t="s">
         <v>86</v>
       </c>
+      <c r="F25" t="s">
+        <v>1276</v>
+      </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
@@ -4593,7 +5073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4609,8 +5089,11 @@
       <c r="E26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4626,11 +5109,14 @@
       <c r="E27" t="s">
         <v>92</v>
       </c>
+      <c r="F27" t="s">
+        <v>1275</v>
+      </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4646,8 +5132,11 @@
       <c r="E28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4667,7 +5156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4683,11 +5172,14 @@
       <c r="E30" t="s">
         <v>101</v>
       </c>
+      <c r="F30" t="s">
+        <v>1288</v>
+      </c>
       <c r="K30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4703,11 +5195,14 @@
       <c r="E31" t="s">
         <v>104</v>
       </c>
+      <c r="F31" t="s">
+        <v>1267</v>
+      </c>
       <c r="K31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4723,11 +5218,14 @@
       <c r="E32" t="s">
         <v>107</v>
       </c>
+      <c r="F32" t="s">
+        <v>1291</v>
+      </c>
       <c r="K32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4747,7 +5245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4763,6 +5261,9 @@
       <c r="E34" t="s">
         <v>113</v>
       </c>
+      <c r="F34" t="s">
+        <v>1307</v>
+      </c>
       <c r="H34" t="s">
         <v>18</v>
       </c>
@@ -4770,7 +5271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4786,6 +5287,9 @@
       <c r="E35" t="s">
         <v>116</v>
       </c>
+      <c r="F35" t="s">
+        <v>1291</v>
+      </c>
       <c r="H35" t="s">
         <v>18</v>
       </c>
@@ -4793,7 +5297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4809,6 +5313,9 @@
       <c r="E36" t="s">
         <v>119</v>
       </c>
+      <c r="F36" t="s">
+        <v>1277</v>
+      </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
@@ -4816,7 +5323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4832,6 +5339,9 @@
       <c r="E37" t="s">
         <v>122</v>
       </c>
+      <c r="F37" t="s">
+        <v>1268</v>
+      </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
@@ -4839,7 +5349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4862,7 +5372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4885,7 +5395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4908,7 +5418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4931,7 +5441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4947,6 +5457,9 @@
       <c r="E42" t="s">
         <v>137</v>
       </c>
+      <c r="F42" t="s">
+        <v>1252</v>
+      </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
@@ -4954,7 +5467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4970,11 +5483,14 @@
       <c r="E43" t="s">
         <v>140</v>
       </c>
+      <c r="F43" t="s">
+        <v>1281</v>
+      </c>
       <c r="K43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4990,11 +5506,14 @@
       <c r="E44" t="s">
         <v>143</v>
       </c>
+      <c r="F44" t="s">
+        <v>1309</v>
+      </c>
       <c r="K44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5017,7 +5536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5043,7 +5562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5059,11 +5578,14 @@
       <c r="E47" t="s">
         <v>152</v>
       </c>
+      <c r="F47" t="s">
+        <v>1312</v>
+      </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5080,7 +5602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5096,11 +5618,14 @@
       <c r="E49" t="s">
         <v>158</v>
       </c>
+      <c r="F49" t="s">
+        <v>1314</v>
+      </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5116,11 +5641,14 @@
       <c r="E50" t="s">
         <v>161</v>
       </c>
+      <c r="F50" t="s">
+        <v>1263</v>
+      </c>
       <c r="K50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5136,11 +5664,14 @@
       <c r="E51" t="s">
         <v>164</v>
       </c>
+      <c r="F51" t="s">
+        <v>1289</v>
+      </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5156,11 +5687,14 @@
       <c r="E52" t="s">
         <v>167</v>
       </c>
+      <c r="F52" t="s">
+        <v>1299</v>
+      </c>
       <c r="K52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5176,11 +5710,14 @@
       <c r="E53" t="s">
         <v>170</v>
       </c>
+      <c r="F53" t="s">
+        <v>1308</v>
+      </c>
       <c r="K53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5196,6 +5733,9 @@
       <c r="E54" t="s">
         <v>173</v>
       </c>
+      <c r="F54" t="s">
+        <v>1299</v>
+      </c>
       <c r="H54" t="s">
         <v>18</v>
       </c>
@@ -5203,7 +5743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5220,7 +5760,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5236,8 +5776,11 @@
       <c r="E56" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5253,8 +5796,11 @@
       <c r="E57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -5270,11 +5816,14 @@
       <c r="E58" t="s">
         <v>185</v>
       </c>
+      <c r="F58" t="s">
+        <v>1246</v>
+      </c>
       <c r="I58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -5290,11 +5839,14 @@
       <c r="E59" t="s">
         <v>188</v>
       </c>
+      <c r="F59" t="s">
+        <v>1296</v>
+      </c>
       <c r="I59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -5310,11 +5862,14 @@
       <c r="E60" t="s">
         <v>191</v>
       </c>
+      <c r="F60" t="s">
+        <v>1307</v>
+      </c>
       <c r="I60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -5330,11 +5885,14 @@
       <c r="E61" t="s">
         <v>194</v>
       </c>
+      <c r="F61" t="s">
+        <v>1282</v>
+      </c>
       <c r="H61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -5350,11 +5908,14 @@
       <c r="E62" t="s">
         <v>197</v>
       </c>
+      <c r="F62" t="s">
+        <v>1269</v>
+      </c>
       <c r="I62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -5370,11 +5931,14 @@
       <c r="E63" t="s">
         <v>200</v>
       </c>
+      <c r="F63" t="s">
+        <v>1306</v>
+      </c>
       <c r="I63" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -5394,7 +5958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -5410,11 +5974,14 @@
       <c r="E65" t="s">
         <v>206</v>
       </c>
+      <c r="F65" t="s">
+        <v>1246</v>
+      </c>
       <c r="J65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -5430,8 +5997,11 @@
       <c r="E66" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5447,11 +6017,14 @@
       <c r="E67" t="s">
         <v>212</v>
       </c>
+      <c r="F67" t="s">
+        <v>1305</v>
+      </c>
       <c r="H67" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5467,6 +6040,9 @@
       <c r="E68" t="s">
         <v>215</v>
       </c>
+      <c r="F68" t="s">
+        <v>1246</v>
+      </c>
       <c r="J68" t="s">
         <v>18</v>
       </c>
@@ -5474,7 +6050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5491,7 +6067,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5507,6 +6083,9 @@
       <c r="E70" t="s">
         <v>221</v>
       </c>
+      <c r="F70" t="s">
+        <v>1293</v>
+      </c>
       <c r="H70" t="s">
         <v>18</v>
       </c>
@@ -5514,7 +6093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5537,7 +6116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5554,10 +6133,10 @@
         <v>227</v>
       </c>
       <c r="F72" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5574,13 +6153,13 @@
         <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5596,11 +6175,14 @@
       <c r="E74" t="s">
         <v>233</v>
       </c>
+      <c r="F74" t="s">
+        <v>1267</v>
+      </c>
       <c r="J74" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5616,8 +6198,11 @@
       <c r="E75" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5637,7 +6222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5657,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5674,7 +6259,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5691,7 +6276,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5708,7 +6293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5725,7 +6310,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5748,7 +6333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5764,8 +6349,11 @@
       <c r="E83" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5782,7 +6370,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5799,7 +6387,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5815,8 +6403,11 @@
       <c r="E86" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5832,8 +6423,11 @@
       <c r="E87" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5853,7 +6447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5869,8 +6463,11 @@
       <c r="E89" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5887,7 +6484,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5903,8 +6500,11 @@
       <c r="E91" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5921,7 +6521,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5938,7 +6538,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5954,6 +6554,9 @@
       <c r="E94" t="s">
         <v>293</v>
       </c>
+      <c r="F94" t="s">
+        <v>1250</v>
+      </c>
       <c r="H94" t="s">
         <v>18</v>
       </c>
@@ -5964,7 +6567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5980,8 +6583,11 @@
       <c r="E95" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -6004,7 +6610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -6020,11 +6626,14 @@
       <c r="E97" t="s">
         <v>302</v>
       </c>
+      <c r="F97" t="s">
+        <v>1290</v>
+      </c>
       <c r="H97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -6040,8 +6649,11 @@
       <c r="E98" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -6057,11 +6669,14 @@
       <c r="E99" t="s">
         <v>308</v>
       </c>
+      <c r="F99" t="s">
+        <v>1255</v>
+      </c>
       <c r="H99" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6077,8 +6692,11 @@
       <c r="E100" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -6095,7 +6713,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -6111,6 +6729,9 @@
       <c r="E102" t="s">
         <v>317</v>
       </c>
+      <c r="F102" t="s">
+        <v>1243</v>
+      </c>
       <c r="I102" t="s">
         <v>18</v>
       </c>
@@ -6118,7 +6739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -6138,7 +6759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -6154,11 +6775,14 @@
       <c r="E104" t="s">
         <v>323</v>
       </c>
+      <c r="F104" t="s">
+        <v>1260</v>
+      </c>
       <c r="I104" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -6174,11 +6798,14 @@
       <c r="E105" t="s">
         <v>326</v>
       </c>
+      <c r="F105" t="s">
+        <v>1259</v>
+      </c>
       <c r="I105" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -6198,7 +6825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -6215,7 +6842,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -6238,7 +6865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -6261,7 +6888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -6284,7 +6911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -6304,7 +6931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -6324,7 +6951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -6344,7 +6971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -6364,7 +6991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -6384,7 +7011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -6404,7 +7031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -6424,7 +7051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -6444,7 +7071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -6467,7 +7094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -6487,7 +7114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -6507,7 +7134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6527,7 +7154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6547,7 +7174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6563,11 +7190,14 @@
       <c r="E124" t="s">
         <v>383</v>
       </c>
+      <c r="F124" t="s">
+        <v>1289</v>
+      </c>
       <c r="K124" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6583,11 +7213,14 @@
       <c r="E125" t="s">
         <v>386</v>
       </c>
+      <c r="F125" t="s">
+        <v>1268</v>
+      </c>
       <c r="J125" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6603,11 +7236,14 @@
       <c r="E126" t="s">
         <v>389</v>
       </c>
+      <c r="F126" t="s">
+        <v>1267</v>
+      </c>
       <c r="J126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6623,8 +7259,11 @@
       <c r="E127" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6647,7 +7286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6663,11 +7302,14 @@
       <c r="E129" t="s">
         <v>398</v>
       </c>
+      <c r="F129" t="s">
+        <v>1256</v>
+      </c>
       <c r="K129" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6683,8 +7325,11 @@
       <c r="E130" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -6700,11 +7345,14 @@
       <c r="E131" t="s">
         <v>404</v>
       </c>
+      <c r="F131" t="s">
+        <v>1265</v>
+      </c>
       <c r="K131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -6720,11 +7368,14 @@
       <c r="E132" t="s">
         <v>407</v>
       </c>
+      <c r="F132" t="s">
+        <v>1264</v>
+      </c>
       <c r="K132" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -6740,11 +7391,14 @@
       <c r="E133" t="s">
         <v>410</v>
       </c>
+      <c r="F133" t="s">
+        <v>1286</v>
+      </c>
       <c r="H133" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6764,7 +7418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6780,8 +7434,11 @@
       <c r="E135" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -6797,8 +7454,11 @@
       <c r="E136" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -6815,7 +7475,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -6832,7 +7492,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -6848,11 +7508,14 @@
       <c r="E139" t="s">
         <v>428</v>
       </c>
+      <c r="F139" t="s">
+        <v>1246</v>
+      </c>
       <c r="I139" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -6868,8 +7531,11 @@
       <c r="E140" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -6885,11 +7551,14 @@
       <c r="E141" t="s">
         <v>434</v>
       </c>
+      <c r="F141" t="s">
+        <v>1298</v>
+      </c>
       <c r="K141" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -6909,7 +7578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -6929,7 +7598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6946,7 +7615,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6963,7 +7632,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6979,8 +7648,11 @@
       <c r="E146" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6997,7 +7669,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -7013,8 +7685,11 @@
       <c r="E148" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -7031,7 +7706,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -7047,11 +7722,14 @@
       <c r="E150" t="s">
         <v>461</v>
       </c>
+      <c r="F150" t="s">
+        <v>1272</v>
+      </c>
       <c r="J150" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -7067,8 +7745,11 @@
       <c r="E151" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -7085,7 +7766,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -7101,8 +7782,11 @@
       <c r="E153" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -7118,11 +7802,14 @@
       <c r="E154" t="s">
         <v>473</v>
       </c>
+      <c r="F154" t="s">
+        <v>1270</v>
+      </c>
       <c r="I154" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -7138,11 +7825,14 @@
       <c r="E155" t="s">
         <v>476</v>
       </c>
+      <c r="F155" t="s">
+        <v>1287</v>
+      </c>
       <c r="K155" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -7158,8 +7848,11 @@
       <c r="E156" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -7175,8 +7868,11 @@
       <c r="E157" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -7192,8 +7888,11 @@
       <c r="E158" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -7209,11 +7908,14 @@
       <c r="E159" t="s">
         <v>488</v>
       </c>
+      <c r="F159" t="s">
+        <v>1262</v>
+      </c>
       <c r="K159" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -7239,7 +7941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -7255,8 +7957,11 @@
       <c r="E161" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -7273,7 +7978,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -7290,7 +7995,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -7306,11 +8011,14 @@
       <c r="E164" t="s">
         <v>503</v>
       </c>
+      <c r="F164" t="s">
+        <v>1261</v>
+      </c>
       <c r="H164" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -7330,7 +8038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -7346,8 +8054,11 @@
       <c r="E166" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
@@ -7363,11 +8074,14 @@
       <c r="E167" t="s">
         <v>512</v>
       </c>
+      <c r="F167" t="s">
+        <v>1289</v>
+      </c>
       <c r="I167" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
@@ -7387,7 +8101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -7404,7 +8118,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
@@ -7420,6 +8134,9 @@
       <c r="E170" t="s">
         <v>521</v>
       </c>
+      <c r="F170" t="s">
+        <v>1243</v>
+      </c>
       <c r="I170" t="s">
         <v>18</v>
       </c>
@@ -7427,7 +8144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -7443,11 +8160,14 @@
       <c r="E171" t="s">
         <v>524</v>
       </c>
+      <c r="F171" t="s">
+        <v>1269</v>
+      </c>
       <c r="I171" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -7463,8 +8183,11 @@
       <c r="E172" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -7481,7 +8204,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
@@ -7497,6 +8220,9 @@
       <c r="E174" t="s">
         <v>533</v>
       </c>
+      <c r="F174" t="s">
+        <v>1296</v>
+      </c>
       <c r="I174" t="s">
         <v>18</v>
       </c>
@@ -7504,7 +8230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
@@ -7520,11 +8246,14 @@
       <c r="E175" t="s">
         <v>536</v>
       </c>
+      <c r="F175" t="s">
+        <v>1311</v>
+      </c>
       <c r="I175" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -7540,11 +8269,14 @@
       <c r="E176" t="s">
         <v>539</v>
       </c>
+      <c r="F176" t="s">
+        <v>1284</v>
+      </c>
       <c r="I176" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
@@ -7564,7 +8296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>178</v>
       </c>
@@ -7584,7 +8316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>179</v>
       </c>
@@ -7601,13 +8333,13 @@
         <v>548</v>
       </c>
       <c r="F179" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="I179" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>180</v>
       </c>
@@ -7623,11 +8355,14 @@
       <c r="E180" t="s">
         <v>551</v>
       </c>
+      <c r="F180" t="s">
+        <v>1265</v>
+      </c>
       <c r="I180" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>181</v>
       </c>
@@ -7643,11 +8378,14 @@
       <c r="E181" t="s">
         <v>554</v>
       </c>
+      <c r="F181" t="s">
+        <v>1282</v>
+      </c>
       <c r="I181" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>182</v>
       </c>
@@ -7664,10 +8402,10 @@
         <v>557</v>
       </c>
       <c r="F182" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
@@ -7684,10 +8422,10 @@
         <v>560</v>
       </c>
       <c r="F183" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7703,11 +8441,14 @@
       <c r="E184" t="s">
         <v>563</v>
       </c>
+      <c r="F184" t="s">
+        <v>1309</v>
+      </c>
       <c r="K184" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7727,7 +8468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>186</v>
       </c>
@@ -7743,11 +8484,14 @@
       <c r="E186" t="s">
         <v>569</v>
       </c>
+      <c r="F186" t="s">
+        <v>1256</v>
+      </c>
       <c r="J186" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>187</v>
       </c>
@@ -7764,13 +8508,13 @@
         <v>572</v>
       </c>
       <c r="F187" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H187" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
@@ -7786,8 +8530,11 @@
       <c r="E188" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>189</v>
       </c>
@@ -7803,8 +8550,11 @@
       <c r="E189" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>190</v>
       </c>
@@ -7821,7 +8571,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>191</v>
       </c>
@@ -7837,11 +8587,14 @@
       <c r="E191" t="s">
         <v>584</v>
       </c>
+      <c r="F191" t="s">
+        <v>1282</v>
+      </c>
       <c r="K191" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>192</v>
       </c>
@@ -7858,13 +8611,13 @@
         <v>587</v>
       </c>
       <c r="F192" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="K192" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>193</v>
       </c>
@@ -7880,8 +8633,11 @@
       <c r="E193" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>194</v>
       </c>
@@ -7897,6 +8653,9 @@
       <c r="E194" t="s">
         <v>593</v>
       </c>
+      <c r="F194" t="s">
+        <v>1295</v>
+      </c>
       <c r="H194" t="s">
         <v>18</v>
       </c>
@@ -7904,7 +8663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>195</v>
       </c>
@@ -7924,7 +8683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7944,7 +8703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7967,7 +8726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7983,6 +8742,9 @@
       <c r="E198" t="s">
         <v>605</v>
       </c>
+      <c r="F198" t="s">
+        <v>1281</v>
+      </c>
       <c r="H198" t="s">
         <v>18</v>
       </c>
@@ -7990,7 +8752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>199</v>
       </c>
@@ -8006,6 +8768,9 @@
       <c r="E199" t="s">
         <v>608</v>
       </c>
+      <c r="F199" t="s">
+        <v>1250</v>
+      </c>
       <c r="H199" t="s">
         <v>18</v>
       </c>
@@ -8013,7 +8778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -8029,6 +8794,9 @@
       <c r="E200" t="s">
         <v>611</v>
       </c>
+      <c r="F200" t="s">
+        <v>1269</v>
+      </c>
       <c r="H200" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -8052,11 +8820,14 @@
       <c r="E201" t="s">
         <v>614</v>
       </c>
+      <c r="F201" t="s">
+        <v>1246</v>
+      </c>
       <c r="K201" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>202</v>
       </c>
@@ -8072,6 +8843,9 @@
       <c r="E202" t="s">
         <v>617</v>
       </c>
+      <c r="F202" t="s">
+        <v>1248</v>
+      </c>
       <c r="H202" t="s">
         <v>18</v>
       </c>
@@ -8079,7 +8853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>203</v>
       </c>
@@ -8095,6 +8869,9 @@
       <c r="E203" t="s">
         <v>620</v>
       </c>
+      <c r="F203" t="s">
+        <v>1281</v>
+      </c>
       <c r="H203" t="s">
         <v>18</v>
       </c>
@@ -8102,7 +8879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>204</v>
       </c>
@@ -8125,7 +8902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>205</v>
       </c>
@@ -8142,7 +8919,7 @@
         <v>626</v>
       </c>
       <c r="F205" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="H205" t="s">
         <v>18</v>
@@ -8151,7 +8928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>206</v>
       </c>
@@ -8168,7 +8945,7 @@
         <v>629</v>
       </c>
       <c r="F206" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="H206" t="s">
         <v>18</v>
@@ -8177,7 +8954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>207</v>
       </c>
@@ -8193,6 +8970,9 @@
       <c r="E207" t="s">
         <v>632</v>
       </c>
+      <c r="F207" t="s">
+        <v>1263</v>
+      </c>
       <c r="H207" t="s">
         <v>18</v>
       </c>
@@ -8200,7 +8980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>208</v>
       </c>
@@ -8216,11 +8996,14 @@
       <c r="E208" t="s">
         <v>635</v>
       </c>
+      <c r="F208" t="s">
+        <v>1249</v>
+      </c>
       <c r="H208" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>209</v>
       </c>
@@ -8246,7 +9029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>210</v>
       </c>
@@ -8262,6 +9045,9 @@
       <c r="E210" t="s">
         <v>641</v>
       </c>
+      <c r="F210" t="s">
+        <v>1246</v>
+      </c>
       <c r="H210" t="s">
         <v>18</v>
       </c>
@@ -8269,7 +9055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>211</v>
       </c>
@@ -8285,6 +9071,9 @@
       <c r="E211" t="s">
         <v>644</v>
       </c>
+      <c r="F211" t="s">
+        <v>1248</v>
+      </c>
       <c r="H211" t="s">
         <v>18</v>
       </c>
@@ -8292,7 +9081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>212</v>
       </c>
@@ -8308,6 +9097,9 @@
       <c r="E212" t="s">
         <v>647</v>
       </c>
+      <c r="F212" t="s">
+        <v>1280</v>
+      </c>
       <c r="H212" t="s">
         <v>18</v>
       </c>
@@ -8315,7 +9107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>213</v>
       </c>
@@ -8331,11 +9123,14 @@
       <c r="E213" t="s">
         <v>650</v>
       </c>
+      <c r="F213" t="s">
+        <v>1250</v>
+      </c>
       <c r="K213" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>214</v>
       </c>
@@ -8352,7 +9147,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>215</v>
       </c>
@@ -8369,13 +9164,13 @@
         <v>656</v>
       </c>
       <c r="F215" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I215" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>216</v>
       </c>
@@ -8392,7 +9187,7 @@
         <v>659</v>
       </c>
       <c r="F216" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I216" t="s">
         <v>18</v>
@@ -8401,7 +9196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>217</v>
       </c>
@@ -8421,7 +9216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>218</v>
       </c>
@@ -8437,8 +9232,11 @@
       <c r="E218" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>219</v>
       </c>
@@ -8454,8 +9252,11 @@
       <c r="E219" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>220</v>
       </c>
@@ -8471,11 +9272,14 @@
       <c r="E220" t="s">
         <v>671</v>
       </c>
+      <c r="F220" t="s">
+        <v>1259</v>
+      </c>
       <c r="H220" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>221</v>
       </c>
@@ -8495,7 +9299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>222</v>
       </c>
@@ -8512,7 +9316,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>223</v>
       </c>
@@ -8528,11 +9332,14 @@
       <c r="E223" t="s">
         <v>680</v>
       </c>
+      <c r="F223" t="s">
+        <v>1288</v>
+      </c>
       <c r="K223" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>224</v>
       </c>
@@ -8552,7 +9359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>225</v>
       </c>
@@ -8568,8 +9375,11 @@
       <c r="E225" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>226</v>
       </c>
@@ -8585,8 +9395,11 @@
       <c r="E226" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>227</v>
       </c>
@@ -8602,8 +9415,11 @@
       <c r="E227" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>228</v>
       </c>
@@ -8620,13 +9436,13 @@
         <v>695</v>
       </c>
       <c r="F228" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J228" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>229</v>
       </c>
@@ -8643,10 +9459,10 @@
         <v>698</v>
       </c>
       <c r="F229" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>230</v>
       </c>
@@ -8666,7 +9482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>231</v>
       </c>
@@ -8682,8 +9498,11 @@
       <c r="E231" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>232</v>
       </c>
@@ -8699,8 +9518,11 @@
       <c r="E232" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>233</v>
       </c>
@@ -8717,7 +9539,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>234</v>
       </c>
@@ -8733,8 +9555,11 @@
       <c r="E234" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>235</v>
       </c>
@@ -8751,7 +9576,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>236</v>
       </c>
@@ -8768,10 +9593,10 @@
         <v>719</v>
       </c>
       <c r="F236" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>237</v>
       </c>
@@ -8787,11 +9612,14 @@
       <c r="E237" t="s">
         <v>722</v>
       </c>
+      <c r="F237" t="s">
+        <v>1291</v>
+      </c>
       <c r="J237" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>238</v>
       </c>
@@ -8807,8 +9635,11 @@
       <c r="E238" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>239</v>
       </c>
@@ -8824,11 +9655,14 @@
       <c r="E239" t="s">
         <v>728</v>
       </c>
+      <c r="F239" t="s">
+        <v>1249</v>
+      </c>
       <c r="K239" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>240</v>
       </c>
@@ -8845,13 +9679,13 @@
         <v>731</v>
       </c>
       <c r="F240" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I240" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>241</v>
       </c>
@@ -8867,11 +9701,14 @@
       <c r="E241" t="s">
         <v>734</v>
       </c>
+      <c r="F241" t="s">
+        <v>1301</v>
+      </c>
       <c r="I241" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>242</v>
       </c>
@@ -8891,7 +9728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>243</v>
       </c>
@@ -8914,7 +9751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>244</v>
       </c>
@@ -8937,7 +9774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>245</v>
       </c>
@@ -8954,7 +9791,7 @@
         <v>746</v>
       </c>
       <c r="F245" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
@@ -8963,7 +9800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>246</v>
       </c>
@@ -8979,6 +9816,9 @@
       <c r="E246" t="s">
         <v>749</v>
       </c>
+      <c r="F246" t="s">
+        <v>1252</v>
+      </c>
       <c r="H246" t="s">
         <v>18</v>
       </c>
@@ -8986,7 +9826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>247</v>
       </c>
@@ -9002,6 +9842,9 @@
       <c r="E247" t="s">
         <v>752</v>
       </c>
+      <c r="F247" t="s">
+        <v>1288</v>
+      </c>
       <c r="H247" t="s">
         <v>18</v>
       </c>
@@ -9009,7 +9852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>248</v>
       </c>
@@ -9032,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>249</v>
       </c>
@@ -9048,6 +9891,9 @@
       <c r="E249" t="s">
         <v>758</v>
       </c>
+      <c r="F249" t="s">
+        <v>1313</v>
+      </c>
       <c r="H249" t="s">
         <v>18</v>
       </c>
@@ -9055,7 +9901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>250</v>
       </c>
@@ -9071,8 +9917,11 @@
       <c r="E250" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>251</v>
       </c>
@@ -9089,7 +9938,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>252</v>
       </c>
@@ -9105,8 +9954,11 @@
       <c r="E252" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>253</v>
       </c>
@@ -9122,11 +9974,14 @@
       <c r="E253" t="s">
         <v>770</v>
       </c>
+      <c r="F253" t="s">
+        <v>1282</v>
+      </c>
       <c r="J253" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>254</v>
       </c>
@@ -9143,7 +9998,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>255</v>
       </c>
@@ -9159,8 +10014,11 @@
       <c r="E255" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>256</v>
       </c>
@@ -9176,8 +10034,11 @@
       <c r="E256" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>257</v>
       </c>
@@ -9193,6 +10054,9 @@
       <c r="E257" t="s">
         <v>782</v>
       </c>
+      <c r="F257" t="s">
+        <v>1300</v>
+      </c>
       <c r="H257" t="s">
         <v>18</v>
       </c>
@@ -9200,7 +10064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>258</v>
       </c>
@@ -9216,6 +10080,9 @@
       <c r="E258" t="s">
         <v>785</v>
       </c>
+      <c r="F258" t="s">
+        <v>1299</v>
+      </c>
       <c r="H258" t="s">
         <v>18</v>
       </c>
@@ -9223,7 +10090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>259</v>
       </c>
@@ -9239,6 +10106,9 @@
       <c r="E259" t="s">
         <v>788</v>
       </c>
+      <c r="F259" t="s">
+        <v>1252</v>
+      </c>
       <c r="H259" t="s">
         <v>18</v>
       </c>
@@ -9246,7 +10116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>260</v>
       </c>
@@ -9262,6 +10132,9 @@
       <c r="E260" t="s">
         <v>791</v>
       </c>
+      <c r="F260" t="s">
+        <v>1263</v>
+      </c>
       <c r="H260" t="s">
         <v>18</v>
       </c>
@@ -9269,7 +10142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>261</v>
       </c>
@@ -9285,6 +10158,9 @@
       <c r="E261" t="s">
         <v>794</v>
       </c>
+      <c r="F261" t="s">
+        <v>1249</v>
+      </c>
       <c r="H261" t="s">
         <v>18</v>
       </c>
@@ -9292,7 +10168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>262</v>
       </c>
@@ -9312,7 +10188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>263</v>
       </c>
@@ -9329,7 +10205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>264</v>
       </c>
@@ -9346,7 +10222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>265</v>
       </c>
@@ -9363,7 +10239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>266</v>
       </c>
@@ -9380,7 +10256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>267</v>
       </c>
@@ -9397,7 +10273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>268</v>
       </c>
@@ -9414,7 +10290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>269</v>
       </c>
@@ -9431,7 +10307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>270</v>
       </c>
@@ -9448,7 +10324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>271</v>
       </c>
@@ -9465,7 +10341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>272</v>
       </c>
@@ -9482,7 +10358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>273</v>
       </c>
@@ -9499,7 +10375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>274</v>
       </c>
@@ -9516,7 +10392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>275</v>
       </c>
@@ -9536,7 +10412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>276</v>
       </c>
@@ -9553,7 +10429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>277</v>
       </c>
@@ -9567,7 +10443,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>278</v>
       </c>
@@ -9584,7 +10460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>279</v>
       </c>
@@ -9598,7 +10474,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>280</v>
       </c>
@@ -9612,7 +10488,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>281</v>
       </c>
@@ -9629,7 +10505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>282</v>
       </c>
@@ -9646,7 +10522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>283</v>
       </c>
@@ -9663,7 +10539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>284</v>
       </c>
@@ -9683,7 +10559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>285</v>
       </c>
@@ -9700,7 +10576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>286</v>
       </c>
@@ -9714,7 +10590,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>287</v>
       </c>
@@ -9728,7 +10604,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>288</v>
       </c>
@@ -9748,7 +10624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>289</v>
       </c>
@@ -9765,7 +10641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>290</v>
       </c>
@@ -9782,7 +10658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>291</v>
       </c>
@@ -9799,7 +10675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>292</v>
       </c>
@@ -9816,7 +10692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>293</v>
       </c>
@@ -9833,7 +10709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>294</v>
       </c>
@@ -9850,7 +10726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>295</v>
       </c>
@@ -9870,7 +10746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>296</v>
       </c>
@@ -9890,7 +10766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>297</v>
       </c>
@@ -9907,7 +10783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>298</v>
       </c>
@@ -9921,7 +10797,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>299</v>
       </c>
@@ -9935,7 +10811,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>300</v>
       </c>
@@ -9949,7 +10825,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>301</v>
       </c>
@@ -9963,7 +10839,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>302</v>
       </c>
@@ -9977,7 +10853,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>303</v>
       </c>
@@ -9991,7 +10867,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>304</v>
       </c>
@@ -10005,7 +10881,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>305</v>
       </c>
@@ -10022,7 +10898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>306</v>
       </c>
@@ -10036,7 +10912,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>307</v>
       </c>
@@ -10050,7 +10926,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>308</v>
       </c>
@@ -10064,7 +10940,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>309</v>
       </c>
@@ -10081,7 +10957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>310</v>
       </c>
@@ -10098,7 +10974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>311</v>
       </c>
@@ -10112,7 +10988,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>312</v>
       </c>
@@ -10126,7 +11002,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>313</v>
       </c>
@@ -10143,7 +11019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>314</v>
       </c>
@@ -10157,7 +11033,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>315</v>
       </c>
@@ -10171,7 +11047,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>316</v>
       </c>
@@ -10188,7 +11064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>317</v>
       </c>
@@ -10202,7 +11078,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>318</v>
       </c>
@@ -10222,7 +11098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>319</v>
       </c>
@@ -10245,7 +11121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>320</v>
       </c>
@@ -10265,7 +11141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>321</v>
       </c>
@@ -10279,7 +11155,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>322</v>
       </c>
@@ -10296,7 +11172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>323</v>
       </c>
@@ -10310,7 +11186,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>324</v>
       </c>
@@ -10330,7 +11206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>325</v>
       </c>
@@ -10350,7 +11226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>326</v>
       </c>
@@ -10364,7 +11240,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>327</v>
       </c>
@@ -10378,7 +11254,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>328</v>
       </c>
@@ -10392,7 +11268,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>329</v>
       </c>
@@ -10412,7 +11288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>330</v>
       </c>
@@ -10432,7 +11308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>331</v>
       </c>
@@ -10452,7 +11328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>332</v>
       </c>
@@ -10472,7 +11348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>333</v>
       </c>
@@ -10492,7 +11368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>334</v>
       </c>
@@ -10506,7 +11382,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>335</v>
       </c>
@@ -10523,7 +11399,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>336</v>
       </c>
@@ -10540,7 +11416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>337</v>
       </c>
@@ -10557,7 +11433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>338</v>
       </c>
@@ -10574,7 +11450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>339</v>
       </c>
@@ -10588,7 +11464,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>340</v>
       </c>
@@ -10608,7 +11484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>341</v>
       </c>
@@ -10625,7 +11501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>342</v>
       </c>
@@ -10642,7 +11518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>343</v>
       </c>
@@ -10656,7 +11532,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>344</v>
       </c>
@@ -10670,7 +11546,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>345</v>
       </c>
@@ -10684,7 +11560,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>346</v>
       </c>
@@ -10698,7 +11574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>347</v>
       </c>
@@ -10718,7 +11594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>348</v>
       </c>
@@ -10735,7 +11611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>349</v>
       </c>
@@ -10758,7 +11634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>350</v>
       </c>
@@ -10772,7 +11648,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>351</v>
       </c>
@@ -10789,7 +11665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>352</v>
       </c>
@@ -10803,7 +11679,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>353</v>
       </c>
@@ -10826,7 +11702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>354</v>
       </c>
@@ -10846,7 +11722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>355</v>
       </c>
@@ -10866,7 +11742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>356</v>
       </c>
@@ -10886,7 +11762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>357</v>
       </c>
@@ -10903,7 +11779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>358</v>
       </c>
@@ -10917,7 +11793,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>359</v>
       </c>
@@ -10931,7 +11807,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>360</v>
       </c>
@@ -10945,7 +11821,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>361</v>
       </c>
@@ -10959,7 +11835,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>362</v>
       </c>
@@ -10973,7 +11849,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>363</v>
       </c>
@@ -10987,7 +11863,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>364</v>
       </c>
@@ -11001,7 +11877,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>365</v>
       </c>
@@ -11015,7 +11891,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>366</v>
       </c>
@@ -11029,7 +11905,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>367</v>
       </c>
@@ -11043,7 +11919,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>368</v>
       </c>
@@ -11057,7 +11933,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>369</v>
       </c>
@@ -11071,7 +11947,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>370</v>
       </c>
@@ -11085,7 +11961,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>371</v>
       </c>
@@ -11099,7 +11975,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>372</v>
       </c>
@@ -11113,7 +11989,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>373</v>
       </c>
@@ -11127,7 +12003,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>374</v>
       </c>
@@ -11141,7 +12017,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>375</v>
       </c>
@@ -11155,7 +12031,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>376</v>
       </c>
@@ -11169,7 +12045,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>377</v>
       </c>
@@ -11183,7 +12059,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>378</v>
       </c>
@@ -11197,7 +12073,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>379</v>
       </c>
@@ -11211,7 +12087,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>380</v>
       </c>
@@ -11225,7 +12101,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>381</v>
       </c>
@@ -11239,7 +12115,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>382</v>
       </c>
@@ -11253,7 +12129,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>383</v>
       </c>
@@ -11267,7 +12143,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>384</v>
       </c>
@@ -11281,7 +12157,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>385</v>
       </c>
@@ -11295,7 +12171,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>386</v>
       </c>
@@ -11309,7 +12185,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>387</v>
       </c>
@@ -11323,7 +12199,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>388</v>
       </c>
@@ -11337,7 +12213,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>389</v>
       </c>
@@ -11351,7 +12227,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>390</v>
       </c>
@@ -11365,7 +12241,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>391</v>
       </c>
@@ -11379,7 +12255,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>392</v>
       </c>
@@ -11393,7 +12269,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>393</v>
       </c>
@@ -11407,7 +12283,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>394</v>
       </c>
@@ -11421,7 +12297,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>395</v>
       </c>
@@ -11435,7 +12311,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>396</v>
       </c>
@@ -11449,7 +12325,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>397</v>
       </c>
@@ -11463,7 +12339,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>398</v>
       </c>
@@ -11477,7 +12353,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>399</v>
       </c>
@@ -11491,7 +12367,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>400</v>
       </c>
@@ -11505,7 +12381,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>401</v>
       </c>
@@ -11519,7 +12395,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>402</v>
       </c>
@@ -11533,7 +12409,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>403</v>
       </c>
@@ -11547,7 +12423,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>404</v>
       </c>
@@ -11561,7 +12437,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>405</v>
       </c>
@@ -11575,7 +12451,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>406</v>
       </c>
@@ -11589,7 +12465,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>407</v>
       </c>
@@ -11603,7 +12479,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>408</v>
       </c>
@@ -11617,7 +12493,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>409</v>
       </c>
@@ -11631,7 +12507,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>410</v>
       </c>
@@ -11645,7 +12521,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>411</v>
       </c>
@@ -11659,7 +12535,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>412</v>
       </c>
@@ -11673,7 +12549,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>413</v>
       </c>
@@ -11687,7 +12563,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>414</v>
       </c>
@@ -11701,7 +12577,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>415</v>
       </c>
@@ -11715,7 +12591,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>416</v>
       </c>
@@ -11729,7 +12605,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>417</v>
       </c>
@@ -11743,7 +12619,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>418</v>
       </c>
@@ -11757,7 +12633,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>419</v>
       </c>
@@ -11771,7 +12647,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>420</v>
       </c>
@@ -11785,7 +12661,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>421</v>
       </c>
@@ -11799,7 +12675,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>422</v>
       </c>
@@ -11813,7 +12689,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>423</v>
       </c>
@@ -11827,7 +12703,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>424</v>
       </c>
@@ -11841,7 +12717,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>425</v>
       </c>
@@ -11855,7 +12731,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>426</v>
       </c>
@@ -11869,7 +12745,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>427</v>
       </c>
@@ -11883,7 +12759,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>428</v>
       </c>
@@ -11897,7 +12773,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>429</v>
       </c>
@@ -11911,7 +12787,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>430</v>
       </c>
@@ -11925,7 +12801,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>431</v>
       </c>
@@ -11939,7 +12815,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>432</v>
       </c>
@@ -11953,7 +12829,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>433</v>
       </c>
@@ -11967,7 +12843,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>434</v>
       </c>
@@ -11981,7 +12857,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>435</v>
       </c>
@@ -11995,7 +12871,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>436</v>
       </c>
@@ -12009,7 +12885,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>437</v>
       </c>
@@ -12023,7 +12899,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>438</v>
       </c>
@@ -12037,7 +12913,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>439</v>
       </c>
@@ -12051,7 +12927,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>440</v>
       </c>
@@ -12065,7 +12941,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>441</v>
       </c>
@@ -12079,7 +12955,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>442</v>
       </c>
@@ -12093,7 +12969,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>443</v>
       </c>
@@ -12107,7 +12983,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>444</v>
       </c>
@@ -12121,7 +12997,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>445</v>
       </c>
@@ -12135,7 +13011,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>446</v>
       </c>
@@ -12149,7 +13025,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>447</v>
       </c>
@@ -12178,22 +13054,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12219,7 +13095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -12229,8 +13105,20 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -12240,8 +13128,17 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -12252,7 +13149,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -12263,7 +13160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -12273,8 +13170,17 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -12284,8 +13190,17 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -12295,8 +13210,17 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -12306,8 +13230,20 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -12318,7 +13254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -12329,7 +13265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -12339,8 +13275,20 @@
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -12350,8 +13298,20 @@
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -12362,7 +13322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -12372,8 +13332,17 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -12383,8 +13352,20 @@
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -12394,8 +13375,20 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -12405,8 +13398,20 @@
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -12416,8 +13421,20 @@
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -12427,8 +13444,17 @@
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -12438,8 +13464,20 @@
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -12449,8 +13487,20 @@
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -12460,8 +13510,17 @@
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -12471,8 +13530,17 @@
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -12482,8 +13550,20 @@
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -12493,8 +13573,20 @@
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -12504,8 +13596,20 @@
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -12515,8 +13619,17 @@
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -12526,8 +13639,17 @@
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -12537,8 +13659,20 @@
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -12548,8 +13682,20 @@
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -12559,8 +13705,20 @@
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -12583,7 +13741,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -12603,7 +13761,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -12614,7 +13772,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -12625,7 +13783,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -12636,7 +13794,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -12647,7 +13805,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -12658,7 +13816,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -12669,7 +13827,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -12680,7 +13838,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -12691,7 +13849,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -12702,7 +13860,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1043</v>
       </c>
@@ -12713,7 +13871,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -12724,7 +13882,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1045</v>
       </c>
@@ -12735,7 +13893,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -12746,7 +13904,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1047</v>
       </c>
@@ -12757,7 +13915,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -12768,7 +13926,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1049</v>
       </c>
@@ -12779,7 +13937,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -12790,7 +13948,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -12803,9 +13961,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12818,13 +13976,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12832,7 +13990,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1229</v>
       </c>
@@ -12840,7 +13998,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1231</v>
       </c>
@@ -12848,7 +14006,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1233</v>
       </c>
@@ -12856,7 +14014,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1235</v>
       </c>
@@ -12864,7 +14022,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1237</v>
       </c>
@@ -12872,7 +14030,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1239</v>
       </c>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\wingspan\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A960AB7-AA63-4A60-9F99-00D493A55BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190195EF-6263-4C76-BD74-25AFCB81E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="2205" windowWidth="28875" windowHeight="17235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="15885" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -4073,9 +4073,6 @@
     <t>Experto en humedales</t>
   </si>
   <si>
-    <t>Aves que solo pueden vivir en [weland]</t>
-  </si>
-  <si>
     <t>Cualquier ave que solo tenga el icono de [wetland] y ningún otro icono de hábitat.</t>
   </si>
   <si>
@@ -4233,6 +4230,9 @@
   </si>
   <si>
     <t>Aves que comen [rodent]</t>
+  </si>
+  <si>
+    <t>Aves que solo pueden vivir en [wetland]</t>
   </si>
 </sst>
 </file>
@@ -4476,12 +4476,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="A1:K447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -13052,12 +13052,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -13106,16 +13106,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E2" t="s">
         <v>1377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1378</v>
       </c>
       <c r="G2" t="s">
         <v>1322</v>
       </c>
       <c r="H2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13129,13 +13129,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E3" t="s">
         <v>1380</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>1381</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13191,13 +13191,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E7" t="s">
         <v>1359</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>1360</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13231,16 +13231,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E9" t="s">
         <v>1389</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1390</v>
       </c>
       <c r="G9" t="s">
         <v>1322</v>
       </c>
       <c r="H9" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13276,13 +13276,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E12" t="s">
         <v>1374</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1375</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1376</v>
       </c>
       <c r="G12" t="s">
         <v>1323</v>
@@ -13299,13 +13299,13 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E13" t="s">
         <v>1386</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1387</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1388</v>
       </c>
       <c r="G13" t="s">
         <v>1329</v>
@@ -13333,10 +13333,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E15" t="s">
         <v>1355</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1356</v>
       </c>
       <c r="G15" t="s">
         <v>1323</v>
@@ -13353,16 +13353,16 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E16" t="s">
         <v>1392</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>1393</v>
       </c>
-      <c r="F16" t="s">
-        <v>1394</v>
-      </c>
       <c r="G16" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13422,16 +13422,16 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E19" t="s">
         <v>1383</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1384</v>
       </c>
       <c r="G19" t="s">
         <v>1323</v>
       </c>
       <c r="H19" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13445,13 +13445,13 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E20" t="s">
         <v>1352</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>1353</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13471,7 +13471,7 @@
         <v>1338</v>
       </c>
       <c r="F21" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G21" t="s">
         <v>1329</v>
@@ -13488,13 +13488,13 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E22" t="s">
         <v>1368</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>1369</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1370</v>
       </c>
       <c r="G22" t="s">
         <v>1323</v>
@@ -13531,13 +13531,13 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E24" t="s">
         <v>1357</v>
       </c>
-      <c r="E24" t="s">
-        <v>1358</v>
-      </c>
       <c r="G24" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13551,16 +13551,16 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E25" t="s">
         <v>1362</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H25" t="s">
         <v>1363</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13574,13 +13574,13 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E26" t="s">
         <v>1365</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>1366</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1367</v>
       </c>
       <c r="G26" t="s">
         <v>1329</v>
@@ -13597,16 +13597,16 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E27" t="s">
         <v>1346</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>1347</v>
       </c>
-      <c r="F27" t="s">
-        <v>1348</v>
-      </c>
       <c r="G27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13620,10 +13620,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E28" t="s">
         <v>1395</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1396</v>
       </c>
       <c r="G28" t="s">
         <v>1323</v>
@@ -13640,13 +13640,13 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E29" t="s">
         <v>1371</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>1372</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13686,13 +13686,13 @@
         <v>1342</v>
       </c>
       <c r="E31" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F31" t="s">
         <v>1343</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>1344</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13712,7 +13712,7 @@
         <v>1328</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G32" t="s">
         <v>1329</v>
@@ -13976,7 +13976,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\wingspan\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190195EF-6263-4C76-BD74-25AFCB81E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113274EA-ECA8-4146-BD53-E1F9679A4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="15885" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="1394">
   <si>
     <t>id</t>
   </si>
@@ -3923,9 +3923,6 @@
     <t>Todos los jugadores ponen 1 [egg] en 1 ave [cavity] cualquiera. Puedes poner 1 [egg] en 1 ave [cavity] adicional.</t>
   </si>
   <si>
-    <t>Rova 2 nuevas cartas de bonificación y quédate 1.</t>
-  </si>
-  <si>
     <t>Pon 1 [egg] en cada una de tus aves con un nido [bowl]</t>
   </si>
   <si>
@@ -4130,12 +4127,6 @@
     <t>Fotógrafo</t>
   </si>
   <si>
-    <t>Aves con el icono de fotografo</t>
-  </si>
-  <si>
-    <t>En otras versiones la regla es "Aves con colores en el nombre"</t>
-  </si>
-  <si>
     <t>Constructor de plataformas</t>
   </si>
   <si>
@@ -4175,12 +4166,6 @@
     <t>Anatomista</t>
   </si>
   <si>
-    <t>Aves con el icono de anatomisa</t>
-  </si>
-  <si>
-    <t>En otras versiones la regla es "Aves con partes del cuerpo en el nombre"</t>
-  </si>
-  <si>
     <t>Aficionado de jardín</t>
   </si>
   <si>
@@ -4193,12 +4178,6 @@
     <t>Historiador</t>
   </si>
   <si>
-    <t>Aves con el icono de historiador</t>
-  </si>
-  <si>
-    <t>En otras versiones la regla es "Aves con el nombre de una persona"</t>
-  </si>
-  <si>
     <t>Constructor de cercados</t>
   </si>
   <si>
@@ -4211,12 +4190,6 @@
     <t>Cartógrafo</t>
   </si>
   <si>
-    <t>Aves con el icono de cartógrafo</t>
-  </si>
-  <si>
-    <t>En otras versiones la regla es "Aves que tengan terminos de geografía en el nombre"</t>
-  </si>
-  <si>
     <t>Piscicultor</t>
   </si>
   <si>
@@ -4233,6 +4206,24 @@
   </si>
   <si>
     <t>Aves que solo pueden vivir en [wetland]</t>
+  </si>
+  <si>
+    <t>Cualquier ave con un icono de [rodent]. El ave puede comer también otros tipos de alimento.</t>
+  </si>
+  <si>
+    <t>Aves con el icono [anatomist]</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Aves con el icono [historian]</t>
+  </si>
+  <si>
+    <t>Aves con el icono [cartographer]</t>
+  </si>
+  <si>
+    <t>Aves con el icono [photographer]</t>
   </si>
 </sst>
 </file>
@@ -4476,12 +4467,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="A1:K447"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -4564,7 +4555,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -4587,7 +4578,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -4656,7 +4647,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -4705,7 +4696,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -4728,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -5262,7 +5253,7 @@
         <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -5388,6 +5379,9 @@
       <c r="E39" t="s">
         <v>128</v>
       </c>
+      <c r="F39" t="s">
+        <v>1305</v>
+      </c>
       <c r="H39" t="s">
         <v>18</v>
       </c>
@@ -5507,7 +5501,7 @@
         <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K44" t="s">
         <v>18</v>
@@ -5579,7 +5573,7 @@
         <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
@@ -5619,7 +5613,7 @@
         <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
@@ -5688,7 +5682,7 @@
         <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K52" t="s">
         <v>18</v>
@@ -5711,7 +5705,7 @@
         <v>170</v>
       </c>
       <c r="F53" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K53" t="s">
         <v>18</v>
@@ -5734,7 +5728,7 @@
         <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -5840,7 +5834,7 @@
         <v>188</v>
       </c>
       <c r="F59" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -5863,7 +5857,7 @@
         <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -5932,7 +5926,7 @@
         <v>200</v>
       </c>
       <c r="F63" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -6018,7 +6012,7 @@
         <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
@@ -6084,7 +6078,7 @@
         <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>1293</v>
+        <v>1246</v>
       </c>
       <c r="H70" t="s">
         <v>18</v>
@@ -6821,6 +6815,9 @@
       <c r="E106" t="s">
         <v>329</v>
       </c>
+      <c r="F106" t="s">
+        <v>1289</v>
+      </c>
       <c r="I106" t="s">
         <v>18</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>434</v>
       </c>
       <c r="F141" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K141" t="s">
         <v>18</v>
@@ -8055,7 +8052,7 @@
         <v>509</v>
       </c>
       <c r="F166" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -8184,7 +8181,7 @@
         <v>527</v>
       </c>
       <c r="F172" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8221,7 +8218,7 @@
         <v>533</v>
       </c>
       <c r="F174" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I174" t="s">
         <v>18</v>
@@ -8247,7 +8244,7 @@
         <v>536</v>
       </c>
       <c r="F175" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I175" t="s">
         <v>18</v>
@@ -8442,7 +8439,7 @@
         <v>563</v>
       </c>
       <c r="F184" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="K184" t="s">
         <v>18</v>
@@ -8654,7 +8651,7 @@
         <v>593</v>
       </c>
       <c r="F194" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H194" t="s">
         <v>18</v>
@@ -9233,7 +9230,7 @@
         <v>665</v>
       </c>
       <c r="F218" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9253,7 +9250,7 @@
         <v>668</v>
       </c>
       <c r="F219" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9636,7 +9633,7 @@
         <v>725</v>
       </c>
       <c r="F238" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -9702,7 +9699,7 @@
         <v>734</v>
       </c>
       <c r="F241" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I241" t="s">
         <v>18</v>
@@ -9892,7 +9889,7 @@
         <v>758</v>
       </c>
       <c r="F249" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H249" t="s">
         <v>18</v>
@@ -10055,7 +10052,7 @@
         <v>782</v>
       </c>
       <c r="F257" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H257" t="s">
         <v>18</v>
@@ -10081,7 +10078,7 @@
         <v>785</v>
       </c>
       <c r="F258" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H258" t="s">
         <v>18</v>
@@ -13052,12 +13049,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -13066,7 +13063,7 @@
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -13106,16 +13103,16 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E2" t="s">
-        <v>1377</v>
+        <v>1389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1390</v>
       </c>
       <c r="G2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1378</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13129,13 +13126,13 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="E3" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="G3" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13171,13 +13168,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E6" t="s">
         <v>1320</v>
       </c>
-      <c r="E6" t="s">
-        <v>1321</v>
-      </c>
       <c r="G6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13191,13 +13188,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E7" t="s">
         <v>1358</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>1359</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13211,13 +13208,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E8" t="s">
         <v>1339</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>1340</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13231,16 +13228,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="E9" t="s">
-        <v>1389</v>
+        <v>1392</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1390</v>
       </c>
       <c r="G9" t="s">
-        <v>1322</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1390</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13276,16 +13273,16 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E12" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="F12" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G12" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13299,16 +13296,16 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="E13" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="F13" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="G13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13333,13 +13330,13 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E15" t="s">
         <v>1354</v>
       </c>
-      <c r="E15" t="s">
-        <v>1355</v>
-      </c>
       <c r="G15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13353,19 +13350,19 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="E16" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="F16" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="G16" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -13376,19 +13373,19 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E17" t="s">
         <v>1330</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>1331</v>
       </c>
-      <c r="F17" t="s">
-        <v>1332</v>
-      </c>
       <c r="G17" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -13399,19 +13396,19 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E18" t="s">
         <v>1333</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1334</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1335</v>
       </c>
-      <c r="G18" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -13422,19 +13419,19 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="E19" t="s">
-        <v>1383</v>
+        <v>1391</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1390</v>
       </c>
       <c r="G19" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -13445,16 +13442,16 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E20" t="s">
         <v>1351</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>1352</v>
       </c>
-      <c r="G20" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -13465,19 +13462,19 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E21" t="s">
         <v>1337</v>
       </c>
-      <c r="E21" t="s">
-        <v>1338</v>
-      </c>
       <c r="F21" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G21" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -13488,19 +13485,19 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E22" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F22" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="G22" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -13511,16 +13508,16 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E23" t="s">
         <v>1324</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>1325</v>
       </c>
-      <c r="G23" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -13531,16 +13528,16 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E24" t="s">
         <v>1356</v>
       </c>
-      <c r="E24" t="s">
-        <v>1357</v>
-      </c>
       <c r="G24" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -13551,19 +13548,19 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E25" t="s">
-        <v>1362</v>
+        <v>1393</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1390</v>
       </c>
       <c r="G25" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -13574,19 +13571,19 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E26" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F26" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G26" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -13597,19 +13594,19 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E27" t="s">
         <v>1345</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>1346</v>
       </c>
-      <c r="F27" t="s">
-        <v>1347</v>
-      </c>
       <c r="G27" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -13620,16 +13617,19 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="E28" t="s">
-        <v>1395</v>
+        <v>1386</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1388</v>
       </c>
       <c r="G28" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -13640,16 +13640,16 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E29" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G29" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -13660,19 +13660,19 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E30" t="s">
         <v>1317</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>1318</v>
       </c>
-      <c r="F30" t="s">
-        <v>1319</v>
-      </c>
       <c r="G30" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -13683,19 +13683,19 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F31" t="s">
         <v>1342</v>
       </c>
-      <c r="E31" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>1343</v>
       </c>
-      <c r="G31" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -13706,16 +13706,16 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E32" t="s">
         <v>1327</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G32" t="s">
         <v>1328</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -13976,7 +13976,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1443">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4171,6 +4173,147 @@
   </si>
   <si>
     <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -4228,7 +4371,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4259,6 +4402,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4333,19 +4483,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4379,6 +4529,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -4546,10 +4700,12 @@
   </sheetPr>
   <dimension ref="A1:K483"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E263" activeCellId="0" sqref="E263"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13381,14 +13537,16 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.71"/>
@@ -14310,10 +14468,714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F47"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14327,55 +15189,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1381</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1382</v>
+        <v>1429</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1383</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1384</v>
+        <v>1431</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1385</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1386</v>
+        <v>1433</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1387</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1388</v>
+        <v>1435</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1389</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1390</v>
+        <v>1437</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1391</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1392</v>
+        <v>1439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1393</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -14392,7 +15254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14400,26 +15262,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>1245</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1394</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1395</v>
+      <c r="A2" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="B2" s="10" t="b">
         <f aca="false">TRUE()</f>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1445">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1514,6 +1514,9 @@
     <t xml:space="preserve">Buitre leonado</t>
   </si>
   <si>
+    <t xml:space="preserve">Elige a 1 jugadar (puedes ser tú). Coloca 1 [rodent] del suministro en esta ave por cada [predator] que tenga ese jugador.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hawfinch</t>
   </si>
   <si>
@@ -1755,6 +1758,9 @@
   </si>
   <si>
     <t xml:space="preserve">Curruca subalpina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si usaste los 4 tipos de acciones en esta ronda, juega otra ave. Paga su coste normal en comida y huevas.</t>
   </si>
   <si>
     <t xml:space="preserve">Montagu's Harrier</t>
@@ -4698,28 +4704,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="50.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="68.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="111.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7847,22 +7853,25 @@
       <c r="E144" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="F144" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7870,19 +7879,19 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,16 +7899,16 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7907,19 +7916,19 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,16 +7936,16 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7944,19 +7953,19 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>20</v>
@@ -7967,16 +7976,16 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>28</v>
@@ -7987,16 +7996,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,19 +8013,19 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8024,19 +8033,19 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>20</v>
@@ -8047,19 +8056,19 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>20</v>
@@ -8070,16 +8079,16 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>231</v>
@@ -8090,16 +8099,16 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>436</v>
@@ -8110,16 +8119,16 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>75</v>
@@ -8130,19 +8139,19 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>20</v>
@@ -8153,16 +8162,16 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>20</v>
@@ -8179,16 +8188,16 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>116</v>
@@ -8199,16 +8208,16 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8216,16 +8225,16 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8233,19 +8242,19 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>20</v>
@@ -8256,16 +8265,16 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>20</v>
@@ -8276,19 +8285,19 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8296,16 +8305,16 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>40</v>
@@ -8319,16 +8328,19 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>20</v>
@@ -8339,16 +8351,16 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8356,16 +8368,16 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>358</v>
@@ -8382,16 +8394,16 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>231</v>
@@ -8405,16 +8417,16 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>220</v>
@@ -8425,16 +8437,16 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,16 +8454,16 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>220</v>
@@ -8468,19 +8480,19 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>20</v>
@@ -8491,19 +8503,19 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>20</v>
@@ -8514,16 +8526,16 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>20</v>
@@ -8534,16 +8546,16 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>20</v>
@@ -8554,16 +8566,16 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>101</v>
@@ -8577,16 +8589,16 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>450</v>
@@ -8600,16 +8612,16 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>227</v>
@@ -8623,19 +8635,19 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,16 +8655,16 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>75</v>
@@ -8663,16 +8675,16 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>169</v>
@@ -8686,16 +8698,16 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>20</v>
@@ -8706,16 +8718,16 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>443</v>
@@ -8729,16 +8741,16 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>331</v>
@@ -8752,19 +8764,19 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,16 +8784,16 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>341</v>
@@ -8792,16 +8804,16 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8809,16 +8821,16 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>227</v>
@@ -8832,16 +8844,16 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>28</v>
@@ -8855,19 +8867,19 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,19 +8887,19 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>20</v>
@@ -8901,16 +8913,16 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>20</v>
@@ -8921,16 +8933,16 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>20</v>
@@ -8941,16 +8953,16 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>20</v>
@@ -8964,16 +8976,16 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>15</v>
@@ -8990,16 +9002,16 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>331</v>
@@ -9016,16 +9028,16 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>231</v>
@@ -9042,16 +9054,16 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>75</v>
@@ -9065,16 +9077,16 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>351</v>
@@ -9091,16 +9103,16 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>15</v>
@@ -9117,16 +9129,16 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>20</v>
@@ -9140,16 +9152,16 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>101</v>
@@ -9166,16 +9178,16 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>101</v>
@@ -9192,16 +9204,16 @@
         <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>190</v>
@@ -9218,16 +9230,16 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>28</v>
@@ -9241,19 +9253,19 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>20</v>
@@ -9267,16 +9279,16 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>75</v>
@@ -9293,16 +9305,16 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>351</v>
@@ -9319,16 +9331,16 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>67</v>
@@ -9345,16 +9357,16 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>331</v>
@@ -9368,16 +9380,16 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,19 +9397,19 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>20</v>
@@ -9408,16 +9420,16 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>358</v>
@@ -9434,16 +9446,16 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>20</v>
@@ -9454,19 +9466,19 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9474,16 +9486,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>220</v>
@@ -9494,16 +9506,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>369</v>
@@ -9517,16 +9529,16 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>20</v>
@@ -9537,16 +9549,16 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9554,16 +9566,16 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>63</v>
@@ -9577,16 +9589,16 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>20</v>
@@ -9597,16 +9609,16 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>116</v>
@@ -9617,16 +9629,16 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>75</v>
@@ -9637,16 +9649,16 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>227</v>
@@ -9657,19 +9669,19 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>20</v>
@@ -9680,16 +9692,16 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>75</v>
@@ -9700,16 +9712,16 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>20</v>
@@ -9720,16 +9732,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>15</v>
@@ -9740,16 +9752,16 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -9760,16 +9772,16 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,16 +9789,16 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>28</v>
@@ -9797,16 +9809,16 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9814,16 +9826,16 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>351</v>
@@ -9834,16 +9846,16 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>130</v>
@@ -9857,19 +9869,19 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,16 +9889,16 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>28</v>
@@ -9900,19 +9912,19 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>20</v>
@@ -9923,19 +9935,19 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>20</v>
@@ -9946,16 +9958,16 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>20</v>
@@ -9966,16 +9978,19 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>20</v>
@@ -9989,16 +10004,16 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>20</v>
@@ -10012,19 +10027,19 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>20</v>
@@ -10038,16 +10053,16 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>116</v>
@@ -10064,16 +10079,16 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>63</v>
@@ -10090,16 +10105,16 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>20</v>
@@ -10113,19 +10128,19 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>20</v>
@@ -10139,16 +10154,16 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>75</v>
@@ -10159,16 +10174,16 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10176,16 +10191,16 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>63</v>
@@ -10196,16 +10211,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>227</v>
@@ -10219,16 +10234,16 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,16 +10251,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>331</v>
@@ -10256,16 +10271,16 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>75</v>
@@ -10276,19 +10291,19 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>20</v>
@@ -10302,16 +10317,16 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>197</v>
@@ -10328,16 +10343,16 @@
         <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>116</v>
@@ -10354,16 +10369,16 @@
         <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>190</v>
@@ -10380,16 +10395,16 @@
         <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>28</v>
@@ -10406,16 +10421,19 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>20</v>
@@ -10426,13 +10444,13 @@
         <v>263</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>20</v>
@@ -10443,13 +10461,13 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>875</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>20</v>
@@ -10460,13 +10478,13 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>20</v>
@@ -10477,13 +10495,13 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>20</v>
@@ -10494,13 +10512,13 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>20</v>
@@ -10511,13 +10529,13 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>20</v>
@@ -10528,13 +10546,13 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>20</v>
@@ -10545,13 +10563,13 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>20</v>
@@ -10562,13 +10580,13 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>20</v>
@@ -10579,13 +10597,13 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>20</v>
@@ -10596,13 +10614,13 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>20</v>
@@ -10613,13 +10631,13 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>20</v>
@@ -10630,13 +10648,13 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>20</v>
@@ -10650,13 +10668,13 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>20</v>
@@ -10667,13 +10685,13 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10681,13 +10699,13 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>20</v>
@@ -10698,13 +10716,13 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10712,13 +10730,13 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10726,13 +10744,13 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>20</v>
@@ -10743,13 +10761,13 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>20</v>
@@ -10760,13 +10778,13 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>20</v>
@@ -10777,13 +10795,13 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>20</v>
@@ -10797,13 +10815,13 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>20</v>
@@ -10814,13 +10832,13 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10828,13 +10846,13 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,13 +10860,13 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>20</v>
@@ -10862,13 +10880,13 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>20</v>
@@ -10879,13 +10897,13 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>20</v>
@@ -10896,13 +10914,13 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>20</v>
@@ -10913,13 +10931,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>20</v>
@@ -10930,13 +10948,13 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>20</v>
@@ -10947,13 +10965,13 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>20</v>
@@ -10964,13 +10982,13 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>20</v>
@@ -10984,13 +11002,13 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>20</v>
@@ -11004,13 +11022,13 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>20</v>
@@ -11021,13 +11039,13 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,13 +11053,13 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11049,13 +11067,13 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11063,13 +11081,13 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,13 +11095,13 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,13 +11109,13 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,13 +11123,13 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,13 +11137,13 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>20</v>
@@ -11136,13 +11154,13 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,13 +11168,13 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,13 +11182,13 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11178,13 +11196,13 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>20</v>
@@ -11195,13 +11213,13 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>20</v>
@@ -11212,13 +11230,13 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,13 +11244,13 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11240,13 +11258,13 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>20</v>
@@ -11257,13 +11275,13 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11271,13 +11289,13 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,13 +11303,13 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>20</v>
@@ -11302,13 +11320,13 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,13 +11334,13 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>20</v>
@@ -11336,13 +11354,13 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>20</v>
@@ -11359,13 +11377,13 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>20</v>
@@ -11379,13 +11397,13 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11393,13 +11411,13 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>20</v>
@@ -11410,13 +11428,13 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,13 +11442,13 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>20</v>
@@ -11444,13 +11462,13 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>20</v>
@@ -11461,13 +11479,13 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>20</v>
@@ -11478,13 +11496,13 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,13 +11510,13 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11506,13 +11524,13 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>20</v>
@@ -11526,13 +11544,13 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>20</v>
@@ -11546,13 +11564,13 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>20</v>
@@ -11566,13 +11584,13 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>20</v>
@@ -11586,13 +11604,13 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>20</v>
@@ -11606,13 +11624,13 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11620,13 +11638,13 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>20</v>
@@ -11637,13 +11655,13 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>20</v>
@@ -11654,13 +11672,13 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K337" s="1" t="s">
         <v>20</v>
@@ -11671,13 +11689,13 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K338" s="1" t="s">
         <v>20</v>
@@ -11688,13 +11706,13 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11702,13 +11720,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>20</v>
@@ -11722,13 +11740,13 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>20</v>
@@ -11739,13 +11757,13 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>20</v>
@@ -11756,13 +11774,13 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11770,13 +11788,13 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11784,13 +11802,13 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11798,13 +11816,13 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11812,13 +11830,13 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>20</v>
@@ -11832,13 +11850,13 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11846,13 +11864,13 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>20</v>
@@ -11866,13 +11884,13 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11880,13 +11898,13 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>20</v>
@@ -11897,13 +11915,13 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11911,13 +11929,13 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>20</v>
@@ -11934,13 +11952,13 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>20</v>
@@ -11954,13 +11972,13 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>20</v>
@@ -11974,13 +11992,13 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>20</v>
@@ -11991,13 +12009,13 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>20</v>
@@ -12008,13 +12026,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>20</v>
@@ -12028,13 +12046,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C359" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D359" s="3" t="s">
         <v>1068</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>1066</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>20</v>
@@ -12045,13 +12063,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K360" s="1" t="s">
         <v>20</v>
@@ -12062,13 +12080,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12076,13 +12094,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12090,13 +12108,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>20</v>
@@ -12107,13 +12125,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>20</v>
@@ -12124,13 +12142,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H365" s="1" t="s">
         <v>20</v>
@@ -12144,13 +12162,13 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K366" s="1" t="s">
         <v>20</v>
@@ -12161,13 +12179,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12175,13 +12193,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12189,13 +12207,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>20</v>
@@ -12206,13 +12224,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>20</v>
@@ -12223,13 +12241,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12237,13 +12255,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12251,13 +12269,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,13 +12283,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12279,13 +12297,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>20</v>
@@ -12296,13 +12314,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12310,13 +12328,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>20</v>
@@ -12327,13 +12345,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H378" s="1" t="s">
         <v>20</v>
@@ -12344,13 +12362,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>20</v>
@@ -12361,13 +12379,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I380" s="1" t="s">
         <v>20</v>
@@ -12378,13 +12396,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I381" s="1" t="s">
         <v>20</v>
@@ -12395,13 +12413,13 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I382" s="1" t="s">
         <v>20</v>
@@ -12412,13 +12430,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I383" s="1" t="s">
         <v>20</v>
@@ -12429,13 +12447,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I384" s="1" t="s">
         <v>20</v>
@@ -12446,13 +12464,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I385" s="1" t="s">
         <v>20</v>
@@ -12463,13 +12481,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>20</v>
@@ -12480,13 +12498,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K387" s="1" t="s">
         <v>20</v>
@@ -12497,13 +12515,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>20</v>
@@ -12514,13 +12532,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K389" s="1" t="s">
         <v>20</v>
@@ -12531,13 +12549,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12545,13 +12563,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12559,13 +12577,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>20</v>
@@ -12579,13 +12597,13 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12593,13 +12611,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>20</v>
@@ -12610,13 +12628,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>20</v>
@@ -12627,13 +12645,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,13 +12659,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12655,13 +12673,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K398" s="1" t="s">
         <v>20</v>
@@ -12672,13 +12690,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K399" s="1" t="s">
         <v>20</v>
@@ -12689,13 +12707,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>20</v>
@@ -12706,13 +12724,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12720,13 +12738,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>20</v>
@@ -12737,13 +12755,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>20</v>
@@ -12754,13 +12772,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I404" s="1" t="s">
         <v>20</v>
@@ -12771,13 +12789,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>20</v>
@@ -12788,13 +12806,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12802,13 +12820,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12816,13 +12834,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12830,13 +12848,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12844,13 +12862,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>20</v>
@@ -12864,13 +12882,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>20</v>
@@ -12881,13 +12899,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I412" s="1" t="s">
         <v>20</v>
@@ -12898,13 +12916,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I413" s="1" t="s">
         <v>20</v>
@@ -12915,13 +12933,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K414" s="1" t="s">
         <v>20</v>
@@ -12932,13 +12950,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K415" s="1" t="s">
         <v>20</v>
@@ -12949,13 +12967,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K416" s="1" t="s">
         <v>20</v>
@@ -12966,13 +12984,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I417" s="1" t="s">
         <v>20</v>
@@ -12986,13 +13004,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>20</v>
@@ -13006,13 +13024,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>20</v>
@@ -13026,13 +13044,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>20</v>
@@ -13046,13 +13064,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13060,13 +13078,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13074,13 +13092,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,13 +13106,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K424" s="1" t="s">
         <v>20</v>
@@ -13105,13 +13123,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K425" s="1" t="s">
         <v>20</v>
@@ -13122,13 +13140,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K426" s="1" t="s">
         <v>20</v>
@@ -13139,13 +13157,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13153,13 +13171,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13167,13 +13185,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>20</v>
@@ -13184,13 +13202,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13198,13 +13216,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13212,13 +13230,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H432" s="1" t="s">
         <v>20</v>
@@ -13229,13 +13247,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,13 +13261,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I434" s="1" t="s">
         <v>20</v>
@@ -13263,13 +13281,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I435" s="1" t="s">
         <v>20</v>
@@ -13280,13 +13298,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>20</v>
@@ -13297,13 +13315,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13311,13 +13329,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13325,13 +13343,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K439" s="1" t="s">
         <v>20</v>
@@ -13342,13 +13360,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K440" s="1" t="s">
         <v>20</v>
@@ -13359,13 +13377,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>20</v>
@@ -13379,13 +13397,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>20</v>
@@ -13399,13 +13417,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>20</v>
@@ -13419,13 +13437,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>20</v>
@@ -13439,13 +13457,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13453,13 +13471,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="K446" s="1" t="s">
         <v>20</v>
@@ -13470,51 +13488,15 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1068</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13567,16 +13549,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -13593,16 +13575,16 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13610,19 +13592,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13630,7 +13612,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>78</v>
@@ -13641,7 +13623,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>78</v>
@@ -13652,19 +13634,19 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,19 +13654,19 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13692,19 +13674,19 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13718,16 +13700,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13735,7 +13717,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>78</v>
@@ -13746,7 +13728,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>78</v>
@@ -13757,22 +13739,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13780,22 +13762,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,7 +13785,7 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>78</v>
@@ -13814,19 +13796,19 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13834,22 +13816,22 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13857,22 +13839,22 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,22 +13862,22 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13909,16 +13891,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13926,19 +13908,19 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13946,22 +13928,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,22 +13951,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13992,19 +13974,19 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14012,19 +13994,19 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14038,16 +14020,16 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14055,22 +14037,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14078,22 +14060,22 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14101,22 +14083,22 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,19 +14106,19 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14144,22 +14126,22 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14167,22 +14149,22 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14190,22 +14172,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14213,22 +14195,22 @@
         <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14236,19 +14218,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14256,10 +14238,10 @@
         <v>1034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14267,10 +14249,10 @@
         <v>1035</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14278,10 +14260,10 @@
         <v>1036</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14289,10 +14271,10 @@
         <v>1037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14300,10 +14282,10 @@
         <v>1038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14311,10 +14293,10 @@
         <v>1039</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14322,10 +14304,10 @@
         <v>1040</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14333,10 +14315,10 @@
         <v>1041</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14344,10 +14326,10 @@
         <v>1042</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14355,10 +14337,10 @@
         <v>1043</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14366,10 +14348,10 @@
         <v>1044</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14377,10 +14359,10 @@
         <v>1045</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14388,10 +14370,10 @@
         <v>1046</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14399,10 +14381,10 @@
         <v>1047</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14410,10 +14392,10 @@
         <v>1048</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14421,10 +14403,10 @@
         <v>1049</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14432,10 +14414,10 @@
         <v>1050</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14443,10 +14425,10 @@
         <v>1051</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -14470,7 +14452,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -14499,13 +14481,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14513,7 +14495,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
@@ -14527,7 +14509,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>13</v>
@@ -14541,7 +14523,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
@@ -14555,7 +14537,7 @@
         <v>2013</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
@@ -14569,7 +14551,7 @@
         <v>2014</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
@@ -14583,7 +14565,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
@@ -14597,7 +14579,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
@@ -14611,7 +14593,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
@@ -14625,7 +14607,7 @@
         <v>2021</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -14639,7 +14621,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
@@ -14653,7 +14635,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
@@ -14667,7 +14649,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>13</v>
@@ -14681,7 +14663,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>13</v>
@@ -14695,7 +14677,7 @@
         <v>2016</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
@@ -14709,7 +14691,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
@@ -14723,7 +14705,7 @@
         <v>2024</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
@@ -14737,7 +14719,7 @@
         <v>2020</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>78</v>
@@ -14751,7 +14733,7 @@
         <v>2003</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>78</v>
@@ -14765,7 +14747,7 @@
         <v>2004</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>78</v>
@@ -14779,7 +14761,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>78</v>
@@ -14793,7 +14775,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>78</v>
@@ -14807,7 +14789,7 @@
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>78</v>
@@ -14821,7 +14803,7 @@
         <v>2009</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>78</v>
@@ -14835,7 +14817,7 @@
         <v>2025</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>78</v>
@@ -14849,7 +14831,7 @@
         <v>2007</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>78</v>
@@ -14863,7 +14845,7 @@
         <v>2019</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>78</v>
@@ -14877,10 +14859,10 @@
         <v>2031</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="7"/>
@@ -14891,10 +14873,10 @@
         <v>2030</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="7"/>
@@ -14905,10 +14887,10 @@
         <v>2033</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="7"/>
@@ -14919,10 +14901,10 @@
         <v>2032</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -14933,10 +14915,10 @@
         <v>2026</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="7"/>
@@ -14947,10 +14929,10 @@
         <v>2027</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="7"/>
@@ -14961,10 +14943,10 @@
         <v>2029</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="7"/>
@@ -14975,10 +14957,10 @@
         <v>2028</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="7"/>
@@ -14989,10 +14971,10 @@
         <v>2043</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -15003,10 +14985,10 @@
         <v>2040</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -15017,10 +14999,10 @@
         <v>2035</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -15031,10 +15013,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -15045,10 +15027,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -15059,10 +15041,10 @@
         <v>2044</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -15073,10 +15055,10 @@
         <v>2036</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -15087,10 +15069,10 @@
         <v>2034</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -15101,10 +15083,10 @@
         <v>2037</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -15115,10 +15097,10 @@
         <v>2038</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -15129,10 +15111,10 @@
         <v>2039</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -15143,10 +15125,10 @@
         <v>2045</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -15189,55 +15171,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -15275,15 +15257,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="B2" s="10" t="b">
         <f aca="false">TRUE()</f>

--- a/i18n/es.xlsx
+++ b/i18n/es.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Goals!$A$1:$F$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parameters!$A:$B</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$H$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1446">
   <si>
     <t>id</t>
   </si>
@@ -4369,6 +4369,9 @@
   </si>
   <si>
     <t>Kākāpō</t>
+  </si>
+  <si>
+    <t>Flavor text</t>
   </si>
 </sst>
 </file>
@@ -4378,7 +4381,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4405,6 +4408,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4426,7 +4435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -4448,11 +4457,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4466,15 +4481,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K483" totalsRowShown="0">
-  <autoFilter ref="A1:K483"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L483" totalsRowShown="0">
+  <autoFilter ref="A1:L483"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -4629,13 +4645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,10 +4662,11 @@
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="111.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4668,23 +4685,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -4704,7 +4724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4723,11 +4743,11 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4746,11 +4766,11 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4769,11 +4789,11 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4792,11 +4812,11 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4815,14 +4835,14 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -4841,11 +4861,11 @@
       <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -4864,11 +4884,11 @@
       <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -4887,14 +4907,14 @@
       <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -4913,11 +4933,11 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -4936,14 +4956,14 @@
       <c r="F12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -4959,11 +4979,11 @@
       <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -4982,11 +5002,11 @@
       <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5006,7 +5026,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -5025,14 +5045,14 @@
       <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5051,14 +5071,14 @@
       <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -5075,7 +5095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -5095,7 +5115,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -5134,11 +5154,11 @@
       <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -5158,7 +5178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5178,7 +5198,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -5197,11 +5217,11 @@
       <c r="F24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -5220,17 +5240,17 @@
       <c r="F25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -5250,7 +5270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -5269,11 +5289,11 @@
       <c r="F27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -5293,7 +5313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -5309,11 +5329,11 @@
       <c r="E29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -5332,11 +5352,11 @@
       <c r="F30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -5355,11 +5375,11 @@
       <c r="F31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -5378,11 +5398,11 @@
       <c r="F32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -5398,11 +5418,11 @@
       <c r="E33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -5421,14 +5441,14 @@
       <c r="F34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -5447,14 +5467,14 @@
       <c r="F35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -5473,14 +5493,14 @@
       <c r="F36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -5499,14 +5519,14 @@
       <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -5522,14 +5542,14 @@
       <c r="E38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5548,14 +5568,14 @@
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5571,14 +5591,14 @@
       <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5594,14 +5614,14 @@
       <c r="E41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -5620,14 +5640,14 @@
       <c r="F42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -5646,11 +5666,11 @@
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5669,11 +5689,11 @@
       <c r="F44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -5689,14 +5709,14 @@
       <c r="E45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -5712,17 +5732,17 @@
       <c r="E46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -5741,11 +5761,11 @@
       <c r="F47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -5762,7 +5782,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -5781,11 +5801,11 @@
       <c r="F49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -5804,11 +5824,11 @@
       <c r="F50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -5827,11 +5847,11 @@
       <c r="F51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -5850,11 +5870,11 @@
       <c r="F52" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -5873,11 +5893,11 @@
       <c r="F53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -5896,14 +5916,14 @@
       <c r="F54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -5920,7 +5940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -5940,7 +5960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -5960,7 +5980,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -5979,11 +5999,11 @@
       <c r="F58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -6002,11 +6022,11 @@
       <c r="F59" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -6025,11 +6045,11 @@
       <c r="F60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -6048,11 +6068,11 @@
       <c r="F61" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -6071,11 +6091,11 @@
       <c r="F62" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -6094,11 +6114,11 @@
       <c r="F63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -6114,11 +6134,11 @@
       <c r="E64" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -6137,11 +6157,11 @@
       <c r="F65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -6161,7 +6181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -6180,11 +6200,11 @@
       <c r="F67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -6203,14 +6223,14 @@
       <c r="F68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -6246,14 +6266,14 @@
       <c r="F70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -6272,11 +6292,11 @@
       <c r="F71" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -6296,7 +6316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -6315,11 +6335,11 @@
       <c r="F73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -6338,11 +6358,11 @@
       <c r="F74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -6362,7 +6382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -6378,11 +6398,11 @@
       <c r="E76" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -6398,11 +6418,11 @@
       <c r="E77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -6419,7 +6439,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -6436,7 +6456,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -6453,7 +6473,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -6470,7 +6490,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -6486,14 +6506,14 @@
       <c r="E82" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -6513,7 +6533,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -6530,7 +6550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -6547,7 +6567,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -6567,7 +6587,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -6587,7 +6607,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -6603,11 +6623,11 @@
       <c r="E88" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -6627,7 +6647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -6644,7 +6664,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -6664,7 +6684,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -6681,7 +6701,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -6698,7 +6718,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -6717,17 +6737,17 @@
       <c r="F94" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -6763,14 +6783,14 @@
       <c r="E96" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -6789,11 +6809,11 @@
       <c r="F97" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -6813,7 +6833,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -6832,11 +6852,11 @@
       <c r="F99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -6856,7 +6876,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -6873,7 +6893,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -6892,14 +6912,14 @@
       <c r="F102" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -6915,11 +6935,11 @@
       <c r="E103" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -6938,11 +6958,11 @@
       <c r="F104" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -6961,11 +6981,11 @@
       <c r="F105" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -6984,11 +7004,11 @@
       <c r="F106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -7021,14 +7041,14 @@
       <c r="E108" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I108" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -7044,14 +7064,14 @@
       <c r="E109" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -7067,14 +7087,14 @@
       <c r="E110" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -7090,11 +7110,11 @@
       <c r="E111" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -7110,11 +7130,11 @@
       <c r="E112" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -7130,11 +7150,11 @@
       <c r="E113" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -7150,11 +7170,11 @@
       <c r="E114" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -7170,11 +7190,11 @@
       <c r="E115" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -7190,11 +7210,11 @@
       <c r="E116" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J116" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -7210,11 +7230,11 @@
       <c r="E117" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J117" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -7230,11 +7250,11 @@
       <c r="E118" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J118" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -7250,14 +7270,14 @@
       <c r="E119" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -7273,11 +7293,11 @@
       <c r="E120" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -7293,11 +7313,11 @@
       <c r="E121" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -7313,11 +7333,11 @@
       <c r="E122" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -7333,11 +7353,11 @@
       <c r="E123" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -7356,11 +7376,11 @@
       <c r="F124" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -7379,11 +7399,11 @@
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -7402,11 +7422,11 @@
       <c r="F126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -7426,7 +7446,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -7442,14 +7462,14 @@
       <c r="E128" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -7468,11 +7488,11 @@
       <c r="F129" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -7492,7 +7512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -7511,11 +7531,11 @@
       <c r="F131" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -7534,11 +7554,11 @@
       <c r="F132" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -7557,11 +7577,11 @@
       <c r="F133" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -7577,11 +7597,11 @@
       <c r="E134" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -7601,7 +7621,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -7621,7 +7641,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -7638,7 +7658,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -7655,7 +7675,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -7674,11 +7694,11 @@
       <c r="F139" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -7698,7 +7718,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -7717,11 +7737,11 @@
       <c r="F141" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -7737,11 +7757,11 @@
       <c r="E142" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -7757,11 +7777,11 @@
       <c r="E143" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -7781,7 +7801,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -7798,7 +7818,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -7818,7 +7838,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -7835,7 +7855,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -7855,7 +7875,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -7872,7 +7892,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -7891,11 +7911,11 @@
       <c r="F150" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -7915,7 +7935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -7932,7 +7952,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -7952,7 +7972,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -7971,11 +7991,11 @@
       <c r="F154" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -7994,11 +8014,11 @@
       <c r="F155" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -8018,7 +8038,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -8038,7 +8058,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -8058,7 +8078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -8077,11 +8097,11 @@
       <c r="F159" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="K159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -8097,17 +8117,17 @@
       <c r="E160" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J160" s="1" t="s">
+      <c r="I160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -8127,7 +8147,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -8144,7 +8164,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -8161,7 +8181,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -8180,11 +8200,11 @@
       <c r="F164" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -8200,11 +8220,11 @@
       <c r="E165" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -8224,7 +8244,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -8243,11 +8263,11 @@
       <c r="F167" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -8266,11 +8286,11 @@
       <c r="F168" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -8287,7 +8307,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -8306,14 +8326,14 @@
       <c r="F170" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -8332,11 +8352,11 @@
       <c r="F171" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J171" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -8356,7 +8376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -8373,7 +8393,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -8392,14 +8412,14 @@
       <c r="F174" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -8418,11 +8438,11 @@
       <c r="F175" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -8441,11 +8461,11 @@
       <c r="F176" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J176" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -8461,11 +8481,11 @@
       <c r="E177" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -8481,11 +8501,11 @@
       <c r="E178" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J178" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -8504,11 +8524,11 @@
       <c r="F179" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -8527,11 +8547,11 @@
       <c r="F180" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -8550,11 +8570,11 @@
       <c r="F181" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -8574,7 +8594,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -8594,7 +8614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -8613,11 +8633,11 @@
       <c r="F184" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K184" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -8633,11 +8653,11 @@
       <c r="E185" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -8656,11 +8676,11 @@
       <c r="F186" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -8679,11 +8699,11 @@
       <c r="F187" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -8703,7 +8723,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -8723,7 +8743,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -8740,7 +8760,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -8759,11 +8779,11 @@
       <c r="F191" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K191" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -8782,11 +8802,11 @@
       <c r="F192" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K192" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -8825,14 +8845,14 @@
       <c r="F194" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -8848,11 +8868,11 @@
       <c r="E195" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="K195" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -8868,11 +8888,11 @@
       <c r="E196" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="K196" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -8888,14 +8908,14 @@
       <c r="E197" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -8914,14 +8934,14 @@
       <c r="F198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -8940,14 +8960,14 @@
       <c r="F199" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -8966,14 +8986,14 @@
       <c r="F200" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -8992,11 +9012,11 @@
       <c r="F201" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K201" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -9015,14 +9035,14 @@
       <c r="F202" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -9041,14 +9061,14 @@
       <c r="F203" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -9064,14 +9084,14 @@
       <c r="E204" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -9090,14 +9110,14 @@
       <c r="F205" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -9116,14 +9136,14 @@
       <c r="F206" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -9142,14 +9162,14 @@
       <c r="F207" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -9168,11 +9188,11 @@
       <c r="F208" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I208" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -9191,14 +9211,14 @@
       <c r="F209" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K209" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -9217,14 +9237,14 @@
       <c r="F210" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -9243,14 +9263,14 @@
       <c r="F211" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -9269,14 +9289,14 @@
       <c r="F212" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K212" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -9295,11 +9315,11 @@
       <c r="F213" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K213" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -9316,7 +9336,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -9335,11 +9355,11 @@
       <c r="F215" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -9358,14 +9378,14 @@
       <c r="F216" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J216" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -9381,11 +9401,11 @@
       <c r="E217" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="J217" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -9405,7 +9425,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -9425,7 +9445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -9444,11 +9464,11 @@
       <c r="F220" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -9464,11 +9484,11 @@
       <c r="E221" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I221" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -9485,7 +9505,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -9504,11 +9524,11 @@
       <c r="F223" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K223" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -9524,11 +9544,11 @@
       <c r="E224" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -9548,7 +9568,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -9568,7 +9588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -9588,7 +9608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -9607,11 +9627,11 @@
       <c r="F228" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="J228" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -9631,7 +9651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -9647,11 +9667,11 @@
       <c r="E230" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="J230" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -9671,7 +9691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -9691,7 +9711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -9708,7 +9728,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -9728,7 +9748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -9745,7 +9765,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -9765,7 +9785,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -9784,11 +9804,11 @@
       <c r="F237" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J237" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -9808,7 +9828,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -9827,11 +9847,11 @@
       <c r="F239" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K239" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -9850,11 +9870,11 @@
       <c r="F240" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J240" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -9873,11 +9893,11 @@
       <c r="F241" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="I241" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J241" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -9893,11 +9913,11 @@
       <c r="E242" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="K242" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -9916,14 +9936,14 @@
       <c r="F243" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -9939,14 +9959,14 @@
       <c r="E244" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -9965,14 +9985,14 @@
       <c r="F245" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K245" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -9991,14 +10011,14 @@
       <c r="F246" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -10017,14 +10037,14 @@
       <c r="F247" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K247" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -10040,14 +10060,14 @@
       <c r="E248" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K248" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -10066,14 +10086,14 @@
       <c r="F249" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K249" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -10093,7 +10113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -10110,7 +10130,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -10130,7 +10150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -10149,11 +10169,11 @@
       <c r="F253" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J253" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K253" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -10170,7 +10190,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -10190,7 +10210,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -10210,7 +10230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -10229,14 +10249,14 @@
       <c r="F257" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -10255,14 +10275,14 @@
       <c r="F258" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -10281,14 +10301,14 @@
       <c r="F259" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -10307,14 +10327,14 @@
       <c r="F260" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -10333,14 +10353,14 @@
       <c r="F261" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I261" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -10359,11 +10379,11 @@
       <c r="F262" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K262" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -10376,11 +10396,11 @@
       <c r="D263" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -10393,11 +10413,11 @@
       <c r="D264" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I264" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J264" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -10410,11 +10430,11 @@
       <c r="D265" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I265" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J265" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -10427,11 +10447,11 @@
       <c r="D266" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I266" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J266" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -10444,11 +10464,11 @@
       <c r="D267" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I267" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J267" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -10461,11 +10481,11 @@
       <c r="D268" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I268" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J268" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -10478,11 +10498,11 @@
       <c r="D269" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I269" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J269" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -10495,11 +10515,11 @@
       <c r="D270" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J270" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -10512,11 +10532,11 @@
       <c r="D271" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J271" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -10529,11 +10549,11 @@
       <c r="D272" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I272" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J272" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -10546,11 +10566,11 @@
       <c r="D273" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K273" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -10563,11 +10583,11 @@
       <c r="D274" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K274" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -10580,14 +10600,14 @@
       <c r="D275" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I275" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -10600,11 +10620,11 @@
       <c r="D276" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J276" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -10618,7 +10638,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -10631,11 +10651,11 @@
       <c r="D278" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K278" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -10649,7 +10669,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -10663,7 +10683,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -10676,11 +10696,11 @@
       <c r="D281" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J281" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -10693,11 +10713,11 @@
       <c r="D282" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I282" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -10710,11 +10730,11 @@
       <c r="D283" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K283" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -10727,14 +10747,14 @@
       <c r="D284" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I284" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K284" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -10747,11 +10767,11 @@
       <c r="D285" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I285" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J285" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -10765,7 +10785,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -10779,7 +10799,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -10792,14 +10812,14 @@
       <c r="D288" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K288" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -10812,11 +10832,11 @@
       <c r="D289" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -10829,11 +10849,11 @@
       <c r="D290" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K290" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -10846,11 +10866,11 @@
       <c r="D291" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K291" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -10863,11 +10883,11 @@
       <c r="D292" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K292" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -10880,11 +10900,11 @@
       <c r="D293" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K293" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -10897,11 +10917,11 @@
       <c r="D294" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K294" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -10914,14 +10934,14 @@
       <c r="D295" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I295" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -10934,14 +10954,14 @@
       <c r="D296" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J296" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K296" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -10954,11 +10974,11 @@
       <c r="D297" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J297" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K297" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -10972,7 +10992,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -10986,7 +11006,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -11000,7 +11020,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -11014,7 +11034,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -11042,7 +11062,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -11056,7 +11076,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -11069,11 +11089,11 @@
       <c r="D305" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J305" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -11087,7 +11107,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -11101,7 +11121,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -11115,7 +11135,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -11128,11 +11148,11 @@
       <c r="D309" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J309" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -11145,11 +11165,11 @@
       <c r="D310" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I310" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J310" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -11163,7 +11183,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -11177,7 +11197,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -11190,11 +11210,11 @@
       <c r="D313" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I313" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -11208,7 +11228,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -11222,7 +11242,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -11235,11 +11255,11 @@
       <c r="D316" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I316" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J316" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -11253,7 +11273,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -11266,14 +11286,14 @@
       <c r="D318" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K318" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -11286,17 +11306,17 @@
       <c r="D319" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H319" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I319" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K319" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -11309,14 +11329,14 @@
       <c r="D320" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I320" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K320" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -11330,7 +11350,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -11343,11 +11363,11 @@
       <c r="D322" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J322" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K322" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -11361,7 +11381,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -11374,14 +11394,14 @@
       <c r="D324" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H324" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I324" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -11394,11 +11414,11 @@
       <c r="D325" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I325" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J325" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -11411,11 +11431,11 @@
       <c r="D326" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="J326" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K326" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -11429,7 +11449,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -11443,7 +11463,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -11456,14 +11476,14 @@
       <c r="D329" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K329" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I329" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -11476,14 +11496,14 @@
       <c r="D330" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K330" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I330" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -11496,14 +11516,14 @@
       <c r="D331" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K331" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -11516,14 +11536,14 @@
       <c r="D332" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K332" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I332" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -11536,14 +11556,14 @@
       <c r="D333" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K333" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -11557,7 +11577,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -11570,11 +11590,11 @@
       <c r="D335" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H335" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I335" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -11587,11 +11607,11 @@
       <c r="D336" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K336" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -11604,11 +11624,11 @@
       <c r="D337" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K337" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -11621,11 +11641,11 @@
       <c r="D338" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="K338" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -11639,7 +11659,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -11652,14 +11672,14 @@
       <c r="D340" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K340" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I340" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -11672,11 +11692,11 @@
       <c r="D341" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I341" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J341" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -11689,11 +11709,11 @@
       <c r="D342" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I342" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J342" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -11721,7 +11741,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -11735,7 +11755,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -11749,7 +11769,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -11762,14 +11782,14 @@
       <c r="D347" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K347" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I347" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -11783,7 +11803,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -11796,14 +11816,14 @@
       <c r="D349" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K349" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -11830,11 +11850,11 @@
       <c r="D351" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I351" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -11848,7 +11868,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -11861,17 +11881,17 @@
       <c r="D353" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I353" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K353" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -11884,14 +11904,14 @@
       <c r="D354" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K354" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I354" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -11904,14 +11924,14 @@
       <c r="D355" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K355" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I355" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -11924,11 +11944,11 @@
       <c r="D356" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I356" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -11941,11 +11961,11 @@
       <c r="D357" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I357" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -11958,14 +11978,14 @@
       <c r="D358" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I358" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K358" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L358" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -11978,11 +11998,11 @@
       <c r="D359" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I359" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J359" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -11995,11 +12015,11 @@
       <c r="D360" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K360" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L360" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -12013,7 +12033,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -12027,7 +12047,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -12040,11 +12060,11 @@
       <c r="D363" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K363" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L363" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -12057,11 +12077,11 @@
       <c r="D364" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K364" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L364" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -12074,14 +12094,14 @@
       <c r="D365" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H365" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K365" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I365" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -12094,11 +12114,11 @@
       <c r="D366" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K366" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L366" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -12112,7 +12132,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -12126,7 +12146,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -12139,11 +12159,11 @@
       <c r="D369" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K369" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -12156,11 +12176,11 @@
       <c r="D370" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K370" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -12174,7 +12194,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -12188,7 +12208,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -12202,7 +12222,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -12216,7 +12236,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -12229,11 +12249,11 @@
       <c r="D375" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K375" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -12247,7 +12267,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -12260,11 +12280,11 @@
       <c r="D377" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H377" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I377" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -12277,11 +12297,11 @@
       <c r="D378" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H378" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I378" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -12294,11 +12314,11 @@
       <c r="D379" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I379" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J379" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -12311,11 +12331,11 @@
       <c r="D380" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I380" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J380" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -12328,11 +12348,11 @@
       <c r="D381" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I381" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J381" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -12345,11 +12365,11 @@
       <c r="D382" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I382" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J382" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -12362,11 +12382,11 @@
       <c r="D383" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I383" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J383" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -12379,11 +12399,11 @@
       <c r="D384" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I384" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J384" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -12396,11 +12416,11 @@
       <c r="D385" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I385" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J385" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -12413,11 +12433,11 @@
       <c r="D386" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I386" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J386" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -12430,11 +12450,11 @@
       <c r="D387" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K387" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -12447,11 +12467,11 @@
       <c r="D388" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I388" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J388" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -12464,11 +12484,11 @@
       <c r="D389" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K389" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L389" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -12482,7 +12502,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -12496,7 +12516,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -12509,14 +12529,14 @@
       <c r="D392" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K392" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I392" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -12530,7 +12550,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -12543,11 +12563,11 @@
       <c r="D394" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H394" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I394" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -12560,11 +12580,11 @@
       <c r="D395" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I395" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J395" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -12578,7 +12598,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -12592,7 +12612,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -12605,11 +12625,11 @@
       <c r="D398" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K398" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L398" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -12622,11 +12642,11 @@
       <c r="D399" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K399" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L399" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -12639,11 +12659,11 @@
       <c r="D400" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I400" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J400" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -12657,7 +12677,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -12670,11 +12690,11 @@
       <c r="D402" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H402" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I402" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -12687,11 +12707,11 @@
       <c r="D403" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I403" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J403" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -12704,11 +12724,11 @@
       <c r="D404" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I404" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J404" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -12721,11 +12741,11 @@
       <c r="D405" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H405" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I405" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -12739,7 +12759,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -12753,7 +12773,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -12767,7 +12787,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -12781,7 +12801,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -12794,14 +12814,14 @@
       <c r="D410" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H410" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K410" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I410" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -12814,11 +12834,11 @@
       <c r="D411" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I411" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J411" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -12831,11 +12851,11 @@
       <c r="D412" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I412" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J412" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -12848,11 +12868,11 @@
       <c r="D413" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I413" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J413" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -12865,11 +12885,11 @@
       <c r="D414" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K414" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L414" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -12882,11 +12902,11 @@
       <c r="D415" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K415" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L415" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -12899,11 +12919,11 @@
       <c r="D416" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K416" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L416" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -12916,14 +12936,14 @@
       <c r="D417" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I417" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K417" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J417" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -12936,14 +12956,14 @@
       <c r="D418" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H418" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K418" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I418" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -12956,14 +12976,14 @@
       <c r="D419" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H419" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K419" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I419" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -12976,14 +12996,14 @@
       <c r="D420" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H420" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K420" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I420" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -12997,7 +13017,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -13011,7 +13031,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -13025,7 +13045,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -13038,11 +13058,11 @@
       <c r="D424" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K424" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L424" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -13055,11 +13075,11 @@
       <c r="D425" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K425" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L425" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -13072,11 +13092,11 @@
       <c r="D426" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K426" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L426" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -13090,7 +13110,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -13104,7 +13124,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -13117,11 +13137,11 @@
       <c r="D429" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H429" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I429" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -13135,7 +13155,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -13149,7 +13169,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -13162,11 +13182,11 @@
       <c r="D432" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H432" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I432" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -13180,7 +13200,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -13193,14 +13213,14 @@
       <c r="D434" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I434" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K434" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J434" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -13213,11 +13233,11 @@
       <c r="D435" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="I435" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J435" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -13230,11 +13250,11 @@
       <c r="D436" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H436" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I436" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -13248,7 +13268,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -13262,7 +13282,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -13275,11 +13295,11 @@
       <c r="D439" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K439" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L439" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -13292,11 +13312,11 @@
       <c r="D440" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K440" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L440" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -13309,14 +13329,14 @@
       <c r="D441" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H441" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K441" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I441" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -13329,14 +13349,14 @@
       <c r="D442" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H442" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K442" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I442" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -13349,14 +13369,14 @@
       <c r="D443" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H443" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K443" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I443" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -13369,14 +13389,14 @@
       <c r="D444" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="H444" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K444" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I444" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -13390,7 +13410,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -13403,11 +13423,11 @@
       <c r="D446" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="K446" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L446" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>447</v>
       </c>
